--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -11415,16 +11415,32 @@
       <c r="S248" s="3" t="inlineStr"/>
     </row>
     <row r="249">
-      <c r="A249" s="3" t="inlineStr"/>
+      <c r="A249" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001251</t>
+        </is>
+      </c>
       <c r="B249" s="3" t="inlineStr">
         <is>
           <t>longitudinal study</t>
         </is>
       </c>
-      <c r="C249" s="3" t="inlineStr"/>
+      <c r="C249" s="3" t="inlineStr">
+        <is>
+          <t>Some definition</t>
+        </is>
+      </c>
       <c r="D249" s="3" t="inlineStr"/>
-      <c r="E249" s="3" t="inlineStr"/>
-      <c r="F249" s="3" t="inlineStr"/>
+      <c r="E249" s="3" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="F249" s="3" t="inlineStr">
+        <is>
+          <t>generically dependent contiuant</t>
+        </is>
+      </c>
       <c r="G249" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -11446,7 +11462,11 @@
         </is>
       </c>
       <c r="O249" s="3" t="inlineStr"/>
-      <c r="P249" s="3" t="inlineStr"/>
+      <c r="P249" s="3" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="Q249" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -11456,16 +11456,32 @@
       <c r="S249" s="3" t="inlineStr"/>
     </row>
     <row r="250">
-      <c r="A250" s="3" t="inlineStr"/>
+      <c r="A250" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001271</t>
+        </is>
+      </c>
       <c r="B250" s="3" t="inlineStr">
         <is>
           <t>longitudinal study design</t>
         </is>
       </c>
-      <c r="C250" s="3" t="inlineStr"/>
+      <c r="C250" s="3" t="inlineStr">
+        <is>
+          <t>Some thing</t>
+        </is>
+      </c>
       <c r="D250" s="3" t="inlineStr"/>
-      <c r="E250" s="3" t="inlineStr"/>
-      <c r="F250" s="3" t="inlineStr"/>
+      <c r="E250" s="3" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="F250" s="3" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
       <c r="G250" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -11487,7 +11503,11 @@
         </is>
       </c>
       <c r="O250" s="3" t="inlineStr"/>
-      <c r="P250" s="3" t="inlineStr"/>
+      <c r="P250" s="3" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="Q250" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -11415,16 +11415,32 @@
       <c r="S248" s="3" t="inlineStr"/>
     </row>
     <row r="249">
-      <c r="A249" s="3" t="inlineStr"/>
+      <c r="A249" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001272</t>
+        </is>
+      </c>
       <c r="B249" s="3" t="inlineStr">
         <is>
           <t>longitudinal study</t>
         </is>
       </c>
-      <c r="C249" s="3" t="inlineStr"/>
+      <c r="C249" s="3" t="inlineStr">
+        <is>
+          <t>Something</t>
+        </is>
+      </c>
       <c r="D249" s="3" t="inlineStr"/>
-      <c r="E249" s="3" t="inlineStr"/>
-      <c r="F249" s="3" t="inlineStr"/>
+      <c r="E249" s="3" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="F249" s="3" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
       <c r="G249" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -11446,7 +11462,11 @@
         </is>
       </c>
       <c r="O249" s="3" t="inlineStr"/>
-      <c r="P249" s="3" t="inlineStr"/>
+      <c r="P249" s="3" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="Q249" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -11417,7 +11417,7 @@
     <row r="249">
       <c r="A249" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001272</t>
+          <t>ADDICTO:0001273</t>
         </is>
       </c>
       <c r="B249" s="3" t="inlineStr">

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S544"/>
+  <dimension ref="A1:S543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17686,97 +17686,95 @@
       <c r="S385" s="3" t="inlineStr"/>
     </row>
     <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>SEPIO:0000004</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>research activity</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>A planned process executed in the performance of scientific research wherein systematic investigations are performed to establish facts and reach new conclusions about phenomena in the world.</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr"/>
-      <c r="E386" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="F386" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H386" t="inlineStr"/>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr">
-        <is>
-          <t>research</t>
-        </is>
-      </c>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
-      <c r="M386" t="n">
-        <v>1</v>
-      </c>
-      <c r="N386" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O386" t="inlineStr"/>
-      <c r="P386" t="inlineStr">
-        <is>
-          <t>RW; JH; SC</t>
-        </is>
-      </c>
-      <c r="Q386" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R386" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="S386" t="inlineStr"/>
+      <c r="A386" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001289</t>
+        </is>
+      </c>
+      <c r="B386" s="2" t="inlineStr">
+        <is>
+          <t>research activity attribute</t>
+        </is>
+      </c>
+      <c r="C386" s="2" t="inlineStr">
+        <is>
+          <t>A process attribute of a research activity.</t>
+        </is>
+      </c>
+      <c r="D386" s="2" t="inlineStr"/>
+      <c r="E386" s="2" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="F386" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G386" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H386" s="2" t="inlineStr"/>
+      <c r="I386" s="2" t="inlineStr"/>
+      <c r="J386" s="2" t="inlineStr">
+        <is>
+          <t>study attribute</t>
+        </is>
+      </c>
+      <c r="K386" s="2" t="inlineStr"/>
+      <c r="L386" s="2" t="inlineStr"/>
+      <c r="M386" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N386" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O386" s="2" t="inlineStr"/>
+      <c r="P386" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q386" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R386" s="2" t="inlineStr"/>
+      <c r="S386" s="2" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001289</t>
+          <t>ADDICTO:0001146</t>
         </is>
       </c>
       <c r="B387" s="2" t="inlineStr">
         <is>
-          <t>research activity attribute</t>
+          <t>research activity bias</t>
         </is>
       </c>
       <c r="C387" s="2" t="inlineStr">
         <is>
-          <t>A process attribute of a research activity.</t>
+          <t>A research activity attribute that is the extent to which the data that is output from this process has a systematic inaccuracy.</t>
         </is>
       </c>
       <c r="D387" s="2" t="inlineStr"/>
       <c r="E387" s="2" t="inlineStr">
         <is>
+          <t>research activity attribute</t>
+        </is>
+      </c>
+      <c r="F387" s="2" t="inlineStr">
+        <is>
           <t>process attribute</t>
-        </is>
-      </c>
-      <c r="F387" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
         </is>
       </c>
       <c r="G387" s="2" t="inlineStr">
@@ -17786,17 +17784,15 @@
       </c>
       <c r="H387" s="2" t="inlineStr"/>
       <c r="I387" s="2" t="inlineStr"/>
-      <c r="J387" s="2" t="inlineStr">
-        <is>
-          <t>study attribute</t>
-        </is>
-      </c>
-      <c r="K387" s="2" t="inlineStr"/>
+      <c r="J387" s="2" t="inlineStr"/>
+      <c r="K387" s="2" t="inlineStr">
+        <is>
+          <t>This class refers to actual bias that results in a given research process. This process may be a whole study or some part of a study such as a measurement.</t>
+        </is>
+      </c>
       <c r="L387" s="2" t="inlineStr"/>
-      <c r="M387" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="M387" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="N387" s="2" t="inlineStr">
         <is>
@@ -17820,28 +17816,28 @@
     <row r="388">
       <c r="A388" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001146</t>
+          <t>ADDICTO:0000889</t>
         </is>
       </c>
       <c r="B388" s="2" t="inlineStr">
         <is>
-          <t>research activity bias</t>
+          <t>research literature</t>
         </is>
       </c>
       <c r="C388" s="2" t="inlineStr">
         <is>
-          <t>A research activity attribute that is the extent to which the data that is output from this process has a systematic inaccuracy.</t>
+          <t>Literature that is an output of research activity.</t>
         </is>
       </c>
       <c r="D388" s="2" t="inlineStr"/>
       <c r="E388" s="2" t="inlineStr">
         <is>
-          <t>research activity attribute</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="F388" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="G388" s="2" t="inlineStr">
@@ -17851,12 +17847,12 @@
       </c>
       <c r="H388" s="2" t="inlineStr"/>
       <c r="I388" s="2" t="inlineStr"/>
-      <c r="J388" s="2" t="inlineStr"/>
-      <c r="K388" s="2" t="inlineStr">
-        <is>
-          <t>This class refers to actual bias that results in a given research process. This process may be a whole study or some part of a study such as a measurement.</t>
-        </is>
-      </c>
+      <c r="J388" s="2" t="inlineStr">
+        <is>
+          <t>scientific literature</t>
+        </is>
+      </c>
+      <c r="K388" s="2" t="inlineStr"/>
       <c r="L388" s="2" t="inlineStr"/>
       <c r="M388" s="2" t="n">
         <v>1</v>
@@ -17869,7 +17865,7 @@
       <c r="O388" s="2" t="inlineStr"/>
       <c r="P388" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH; SC</t>
         </is>
       </c>
       <c r="Q388" s="2" t="inlineStr">
@@ -17877,218 +17873,210 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R388" s="2" t="inlineStr"/>
+      <c r="R388" s="2" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
       <c r="S388" s="2" t="inlineStr"/>
     </row>
     <row r="389">
-      <c r="A389" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000889</t>
-        </is>
-      </c>
-      <c r="B389" s="2" t="inlineStr">
-        <is>
-          <t>research literature</t>
-        </is>
-      </c>
-      <c r="C389" s="2" t="inlineStr">
-        <is>
-          <t>Literature that is an output of research activity.</t>
-        </is>
-      </c>
-      <c r="D389" s="2" t="inlineStr"/>
-      <c r="E389" s="2" t="inlineStr">
-        <is>
-          <t>literature</t>
-        </is>
-      </c>
-      <c r="F389" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="G389" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H389" s="2" t="inlineStr"/>
-      <c r="I389" s="2" t="inlineStr"/>
-      <c r="J389" s="2" t="inlineStr">
-        <is>
-          <t>scientific literature</t>
-        </is>
-      </c>
-      <c r="K389" s="2" t="inlineStr"/>
-      <c r="L389" s="2" t="inlineStr"/>
-      <c r="M389" s="2" t="n">
+      <c r="A389" s="4" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000152</t>
+        </is>
+      </c>
+      <c r="B389" s="4" t="inlineStr">
+        <is>
+          <t>research measure</t>
+        </is>
+      </c>
+      <c r="C389" s="4" t="inlineStr">
+        <is>
+          <t>An information content entity that is used in a research study to specify how a measurement should be undertaken.</t>
+        </is>
+      </c>
+      <c r="D389" s="4" t="inlineStr"/>
+      <c r="E389" s="4" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="F389" s="4" t="inlineStr"/>
+      <c r="G389" s="4" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H389" s="4" t="inlineStr">
+        <is>
+          <t>This and the one below need VERY clear labels to disambiguate</t>
+        </is>
+      </c>
+      <c r="I389" s="4" t="inlineStr"/>
+      <c r="J389" s="4" t="inlineStr"/>
+      <c r="K389" s="4" t="inlineStr"/>
+      <c r="L389" s="4" t="inlineStr"/>
+      <c r="M389" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N389" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O389" s="2" t="inlineStr"/>
-      <c r="P389" s="2" t="inlineStr">
+      <c r="N389" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O389" s="4" t="inlineStr"/>
+      <c r="P389" s="4" t="inlineStr"/>
+      <c r="Q389" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R389" s="4" t="inlineStr"/>
+      <c r="S389" s="4" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>SEPIO:0000125</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr"/>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>research activity</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr"/>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="inlineStr"/>
+      <c r="M390" t="n">
+        <v>1</v>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O390" t="inlineStr"/>
+      <c r="P390" t="inlineStr">
         <is>
           <t>RW; JH; SC</t>
         </is>
       </c>
-      <c r="Q389" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R389" s="2" t="inlineStr">
+      <c r="Q390" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R390" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="S389" s="2" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="4" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000152</t>
-        </is>
-      </c>
-      <c r="B390" s="4" t="inlineStr">
-        <is>
-          <t>research measure</t>
-        </is>
-      </c>
-      <c r="C390" s="4" t="inlineStr">
-        <is>
-          <t>An information content entity that is used in a research study to specify how a measurement should be undertaken.</t>
-        </is>
-      </c>
-      <c r="D390" s="4" t="inlineStr"/>
-      <c r="E390" s="4" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="F390" s="4" t="inlineStr"/>
-      <c r="G390" s="4" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H390" s="4" t="inlineStr">
-        <is>
-          <t>This and the one below need VERY clear labels to disambiguate</t>
-        </is>
-      </c>
-      <c r="I390" s="4" t="inlineStr"/>
-      <c r="J390" s="4" t="inlineStr"/>
-      <c r="K390" s="4" t="inlineStr"/>
-      <c r="L390" s="4" t="inlineStr"/>
-      <c r="M390" s="4" t="n">
+      <c r="S390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="4" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000153</t>
+        </is>
+      </c>
+      <c r="B391" s="4" t="inlineStr">
+        <is>
+          <t>research study measurement</t>
+        </is>
+      </c>
+      <c r="C391" s="4" t="inlineStr">
+        <is>
+          <t>A planned process that has as its output a data item corresponding to a quantitative or qualitative description of the attributes of an entity.</t>
+        </is>
+      </c>
+      <c r="D391" s="4" t="inlineStr">
+        <is>
+          <t>Measurement is not itself defined, except tautologically as "the data item that is the output of a measuremnet"</t>
+        </is>
+      </c>
+      <c r="E391" s="4" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="F391" s="4" t="inlineStr"/>
+      <c r="G391" s="4" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H391" s="4" t="inlineStr">
+        <is>
+          <t>Why not just 'measurement'?</t>
+        </is>
+      </c>
+      <c r="I391" s="4" t="inlineStr"/>
+      <c r="J391" s="4" t="inlineStr"/>
+      <c r="K391" s="4" t="inlineStr"/>
+      <c r="L391" s="4" t="inlineStr"/>
+      <c r="M391" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N390" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O390" s="4" t="inlineStr"/>
-      <c r="P390" s="4" t="inlineStr"/>
-      <c r="Q390" s="4" t="inlineStr">
+      <c r="N391" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O391" s="4" t="inlineStr"/>
+      <c r="P391" s="4" t="inlineStr"/>
+      <c r="Q391" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R390" s="4" t="inlineStr"/>
-      <c r="S390" s="4" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>SEPIO:0000125</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>research study</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>A planned process that executes some study design or protocol to generate scientific data that is interpreted to test or generate a hypothesis.</t>
-        </is>
-      </c>
-      <c r="D391" t="inlineStr"/>
-      <c r="E391" t="inlineStr">
-        <is>
-          <t>research activity</t>
-        </is>
-      </c>
-      <c r="F391" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="G391" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H391" t="inlineStr"/>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
-      <c r="M391" t="n">
-        <v>1</v>
-      </c>
-      <c r="N391" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O391" t="inlineStr"/>
-      <c r="P391" t="inlineStr">
-        <is>
-          <t>RW; JH; SC</t>
-        </is>
-      </c>
-      <c r="Q391" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R391" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="S391" t="inlineStr"/>
+      <c r="R391" s="4" t="inlineStr"/>
+      <c r="S391" s="4" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="4" t="inlineStr">
         <is>
-          <t>ADDICTO:0000153</t>
+          <t>ADDICTO:0000154</t>
         </is>
       </c>
       <c r="B392" s="4" t="inlineStr">
         <is>
-          <t>research study measurement</t>
+          <t>research study measurement datum</t>
         </is>
       </c>
       <c r="C392" s="4" t="inlineStr">
         <is>
-          <t>A planned process that has as its output a data item corresponding to a quantitative or qualitative description of the attributes of an entity.</t>
-        </is>
-      </c>
-      <c r="D392" s="4" t="inlineStr">
-        <is>
-          <t>Measurement is not itself defined, except tautologically as "the data item that is the output of a measuremnet"</t>
-        </is>
-      </c>
+          <t>A measurment datum that is produced as part of a research study.</t>
+        </is>
+      </c>
+      <c r="D392" s="4" t="inlineStr"/>
       <c r="E392" s="4" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>measurement datum</t>
         </is>
       </c>
       <c r="F392" s="4" t="inlineStr"/>
@@ -18097,11 +18085,7 @@
           <t>Research activity</t>
         </is>
       </c>
-      <c r="H392" s="4" t="inlineStr">
-        <is>
-          <t>Why not just 'measurement'?</t>
-        </is>
-      </c>
+      <c r="H392" s="4" t="inlineStr"/>
       <c r="I392" s="4" t="inlineStr"/>
       <c r="J392" s="4" t="inlineStr"/>
       <c r="K392" s="4" t="inlineStr"/>
@@ -18115,7 +18099,11 @@
         </is>
       </c>
       <c r="O392" s="4" t="inlineStr"/>
-      <c r="P392" s="4" t="inlineStr"/>
+      <c r="P392" s="4" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q392" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -18125,72 +18113,58 @@
       <c r="S392" s="4" t="inlineStr"/>
     </row>
     <row r="393">
-      <c r="A393" s="4" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000154</t>
-        </is>
-      </c>
-      <c r="B393" s="4" t="inlineStr">
-        <is>
-          <t>research study measurement datum</t>
-        </is>
-      </c>
-      <c r="C393" s="4" t="inlineStr">
-        <is>
-          <t>A measurment datum that is produced as part of a research study.</t>
-        </is>
-      </c>
-      <c r="D393" s="4" t="inlineStr"/>
-      <c r="E393" s="4" t="inlineStr">
-        <is>
-          <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="F393" s="4" t="inlineStr"/>
-      <c r="G393" s="4" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H393" s="4" t="inlineStr"/>
-      <c r="I393" s="4" t="inlineStr"/>
-      <c r="J393" s="4" t="inlineStr"/>
-      <c r="K393" s="4" t="inlineStr"/>
-      <c r="L393" s="4" t="inlineStr"/>
-      <c r="M393" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N393" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O393" s="4" t="inlineStr"/>
-      <c r="P393" s="4" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q393" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R393" s="4" t="inlineStr"/>
-      <c r="S393" s="4" t="inlineStr"/>
+      <c r="A393" s="3" t="inlineStr"/>
+      <c r="B393" s="3" t="inlineStr">
+        <is>
+          <t>researcher</t>
+        </is>
+      </c>
+      <c r="C393" s="3" t="inlineStr">
+        <is>
+          <t>A role of someone who conducts research</t>
+        </is>
+      </c>
+      <c r="D393" s="3" t="inlineStr"/>
+      <c r="E393" s="3" t="inlineStr"/>
+      <c r="F393" s="3" t="inlineStr"/>
+      <c r="G393" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H393" s="3" t="inlineStr"/>
+      <c r="I393" s="3" t="inlineStr"/>
+      <c r="J393" s="3" t="inlineStr"/>
+      <c r="K393" s="3" t="inlineStr"/>
+      <c r="L393" s="3" t="inlineStr"/>
+      <c r="M393" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N393" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O393" s="3" t="inlineStr"/>
+      <c r="P393" s="3" t="inlineStr"/>
+      <c r="Q393" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R393" s="3" t="inlineStr"/>
+      <c r="S393" s="3" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" s="3" t="inlineStr"/>
       <c r="B394" s="3" t="inlineStr">
         <is>
-          <t>researcher</t>
-        </is>
-      </c>
-      <c r="C394" s="3" t="inlineStr">
-        <is>
-          <t>A role of someone who conducts research</t>
-        </is>
-      </c>
+          <t>respondent</t>
+        </is>
+      </c>
+      <c r="C394" s="3" t="inlineStr"/>
       <c r="D394" s="3" t="inlineStr"/>
       <c r="E394" s="3" t="inlineStr"/>
       <c r="F394" s="3" t="inlineStr"/>
@@ -18228,7 +18202,7 @@
       <c r="A395" s="3" t="inlineStr"/>
       <c r="B395" s="3" t="inlineStr">
         <is>
-          <t>respondent</t>
+          <t>retention in study</t>
         </is>
       </c>
       <c r="C395" s="3" t="inlineStr"/>
@@ -18269,7 +18243,7 @@
       <c r="A396" s="3" t="inlineStr"/>
       <c r="B396" s="3" t="inlineStr">
         <is>
-          <t>retention in study</t>
+          <t>retrospective cohort study</t>
         </is>
       </c>
       <c r="C396" s="3" t="inlineStr"/>
@@ -18310,7 +18284,7 @@
       <c r="A397" s="3" t="inlineStr"/>
       <c r="B397" s="3" t="inlineStr">
         <is>
-          <t>retrospective cohort study</t>
+          <t>retrospective comparative cohort design</t>
         </is>
       </c>
       <c r="C397" s="3" t="inlineStr"/>
@@ -18351,7 +18325,7 @@
       <c r="A398" s="3" t="inlineStr"/>
       <c r="B398" s="3" t="inlineStr">
         <is>
-          <t>retrospective comparative cohort design</t>
+          <t>retrospective observational cohort study</t>
         </is>
       </c>
       <c r="C398" s="3" t="inlineStr"/>
@@ -18392,7 +18366,7 @@
       <c r="A399" s="3" t="inlineStr"/>
       <c r="B399" s="3" t="inlineStr">
         <is>
-          <t>retrospective observational cohort study</t>
+          <t>retrospective report</t>
         </is>
       </c>
       <c r="C399" s="3" t="inlineStr"/>
@@ -18433,7 +18407,7 @@
       <c r="A400" s="3" t="inlineStr"/>
       <c r="B400" s="3" t="inlineStr">
         <is>
-          <t>retrospective report</t>
+          <t>retrospective study</t>
         </is>
       </c>
       <c r="C400" s="3" t="inlineStr"/>
@@ -18474,7 +18448,7 @@
       <c r="A401" s="3" t="inlineStr"/>
       <c r="B401" s="3" t="inlineStr">
         <is>
-          <t>retrospective study</t>
+          <t>risk</t>
         </is>
       </c>
       <c r="C401" s="3" t="inlineStr"/>
@@ -18491,10 +18465,8 @@
       <c r="J401" s="3" t="inlineStr"/>
       <c r="K401" s="3" t="inlineStr"/>
       <c r="L401" s="3" t="inlineStr"/>
-      <c r="M401" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="M401" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="N401" s="3" t="inlineStr">
         <is>
@@ -18515,7 +18487,7 @@
       <c r="A402" s="3" t="inlineStr"/>
       <c r="B402" s="3" t="inlineStr">
         <is>
-          <t>risk</t>
+          <t>risk factor</t>
         </is>
       </c>
       <c r="C402" s="3" t="inlineStr"/>
@@ -18554,7 +18526,7 @@
       <c r="A403" s="3" t="inlineStr"/>
       <c r="B403" s="3" t="inlineStr">
         <is>
-          <t>risk factor</t>
+          <t>risk ratio</t>
         </is>
       </c>
       <c r="C403" s="3" t="inlineStr"/>
@@ -18571,8 +18543,10 @@
       <c r="J403" s="3" t="inlineStr"/>
       <c r="K403" s="3" t="inlineStr"/>
       <c r="L403" s="3" t="inlineStr"/>
-      <c r="M403" s="3" t="n">
-        <v>1</v>
+      <c r="M403" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="N403" s="3" t="inlineStr">
         <is>
@@ -18593,7 +18567,7 @@
       <c r="A404" s="3" t="inlineStr"/>
       <c r="B404" s="3" t="inlineStr">
         <is>
-          <t>risk ratio</t>
+          <t>robust predictor</t>
         </is>
       </c>
       <c r="C404" s="3" t="inlineStr"/>
@@ -18634,7 +18608,7 @@
       <c r="A405" s="3" t="inlineStr"/>
       <c r="B405" s="3" t="inlineStr">
         <is>
-          <t>robust predictor</t>
+          <t>russell Standard</t>
         </is>
       </c>
       <c r="C405" s="3" t="inlineStr"/>
@@ -18675,7 +18649,7 @@
       <c r="A406" s="3" t="inlineStr"/>
       <c r="B406" s="3" t="inlineStr">
         <is>
-          <t>russell Standard</t>
+          <t>russell Standard (Clinical)</t>
         </is>
       </c>
       <c r="C406" s="3" t="inlineStr"/>
@@ -18716,7 +18690,7 @@
       <c r="A407" s="3" t="inlineStr"/>
       <c r="B407" s="3" t="inlineStr">
         <is>
-          <t>russell Standard (Clinical)</t>
+          <t>russell Standard outcome criteria</t>
         </is>
       </c>
       <c r="C407" s="3" t="inlineStr"/>
@@ -18757,7 +18731,7 @@
       <c r="A408" s="3" t="inlineStr"/>
       <c r="B408" s="3" t="inlineStr">
         <is>
-          <t>russell Standard outcome criteria</t>
+          <t>saliva drug test</t>
         </is>
       </c>
       <c r="C408" s="3" t="inlineStr"/>
@@ -18798,7 +18772,7 @@
       <c r="A409" s="3" t="inlineStr"/>
       <c r="B409" s="3" t="inlineStr">
         <is>
-          <t>saliva drug test</t>
+          <t>sample size</t>
         </is>
       </c>
       <c r="C409" s="3" t="inlineStr"/>
@@ -18839,7 +18813,7 @@
       <c r="A410" s="3" t="inlineStr"/>
       <c r="B410" s="3" t="inlineStr">
         <is>
-          <t>sample size</t>
+          <t>sampling method</t>
         </is>
       </c>
       <c r="C410" s="3" t="inlineStr"/>
@@ -18877,110 +18851,110 @@
       <c r="S410" s="3" t="inlineStr"/>
     </row>
     <row r="411">
-      <c r="A411" s="3" t="inlineStr"/>
-      <c r="B411" s="3" t="inlineStr">
-        <is>
-          <t>sampling method</t>
-        </is>
-      </c>
-      <c r="C411" s="3" t="inlineStr"/>
-      <c r="D411" s="3" t="inlineStr"/>
-      <c r="E411" s="3" t="inlineStr"/>
-      <c r="F411" s="3" t="inlineStr"/>
-      <c r="G411" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H411" s="3" t="inlineStr"/>
-      <c r="I411" s="3" t="inlineStr"/>
-      <c r="J411" s="3" t="inlineStr"/>
-      <c r="K411" s="3" t="inlineStr"/>
-      <c r="L411" s="3" t="inlineStr"/>
-      <c r="M411" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N411" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O411" s="3" t="inlineStr"/>
-      <c r="P411" s="3" t="inlineStr"/>
-      <c r="Q411" s="3" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R411" s="3" t="inlineStr"/>
-      <c r="S411" s="3" t="inlineStr"/>
+      <c r="A411" s="4" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000159</t>
+        </is>
+      </c>
+      <c r="B411" s="4" t="inlineStr">
+        <is>
+          <t>scientific model</t>
+        </is>
+      </c>
+      <c r="C411" s="4" t="inlineStr">
+        <is>
+          <t>A generically dependent continuant that is a representation or abstraction of a portion of reality, is created by a cognitive agent or group of agents through a process of scientific enquiry, and serves to explain, predict or describe phenomena within a specified domain.</t>
+        </is>
+      </c>
+      <c r="D411" s="4" t="inlineStr"/>
+      <c r="E411" s="4" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="F411" s="4" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G411" s="4" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H411" s="4" t="inlineStr"/>
+      <c r="I411" s="4" t="inlineStr"/>
+      <c r="J411" s="4" t="inlineStr"/>
+      <c r="K411" s="4" t="inlineStr"/>
+      <c r="L411" s="4" t="inlineStr"/>
+      <c r="M411" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N411" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O411" s="4" t="inlineStr"/>
+      <c r="P411" s="4" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q411" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R411" s="4" t="inlineStr"/>
+      <c r="S411" s="4" t="inlineStr"/>
     </row>
     <row r="412">
-      <c r="A412" s="4" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000159</t>
-        </is>
-      </c>
-      <c r="B412" s="4" t="inlineStr">
-        <is>
-          <t>scientific model</t>
-        </is>
-      </c>
-      <c r="C412" s="4" t="inlineStr">
-        <is>
-          <t>A generically dependent continuant that is a representation or abstraction of a portion of reality, is created by a cognitive agent or group of agents through a process of scientific enquiry, and serves to explain, predict or describe phenomena within a specified domain.</t>
-        </is>
-      </c>
-      <c r="D412" s="4" t="inlineStr"/>
-      <c r="E412" s="4" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="F412" s="4" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="G412" s="4" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H412" s="4" t="inlineStr"/>
-      <c r="I412" s="4" t="inlineStr"/>
-      <c r="J412" s="4" t="inlineStr"/>
-      <c r="K412" s="4" t="inlineStr"/>
-      <c r="L412" s="4" t="inlineStr"/>
-      <c r="M412" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N412" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O412" s="4" t="inlineStr"/>
-      <c r="P412" s="4" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q412" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R412" s="4" t="inlineStr"/>
-      <c r="S412" s="4" t="inlineStr"/>
+      <c r="A412" s="3" t="inlineStr"/>
+      <c r="B412" s="3" t="inlineStr">
+        <is>
+          <t>secondary data analysis</t>
+        </is>
+      </c>
+      <c r="C412" s="3" t="inlineStr"/>
+      <c r="D412" s="3" t="inlineStr"/>
+      <c r="E412" s="3" t="inlineStr"/>
+      <c r="F412" s="3" t="inlineStr"/>
+      <c r="G412" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H412" s="3" t="inlineStr"/>
+      <c r="I412" s="3" t="inlineStr"/>
+      <c r="J412" s="3" t="inlineStr"/>
+      <c r="K412" s="3" t="inlineStr"/>
+      <c r="L412" s="3" t="inlineStr"/>
+      <c r="M412" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N412" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O412" s="3" t="inlineStr"/>
+      <c r="P412" s="3" t="inlineStr"/>
+      <c r="Q412" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R412" s="3" t="inlineStr"/>
+      <c r="S412" s="3" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" s="3" t="inlineStr"/>
       <c r="B413" s="3" t="inlineStr">
         <is>
-          <t>secondary data analysis</t>
+          <t>secondary outcome</t>
         </is>
       </c>
       <c r="C413" s="3" t="inlineStr"/>
@@ -19021,7 +18995,7 @@
       <c r="A414" s="3" t="inlineStr"/>
       <c r="B414" s="3" t="inlineStr">
         <is>
-          <t>secondary outcome</t>
+          <t>secondary study aim</t>
         </is>
       </c>
       <c r="C414" s="3" t="inlineStr"/>
@@ -19062,7 +19036,7 @@
       <c r="A415" s="3" t="inlineStr"/>
       <c r="B415" s="3" t="inlineStr">
         <is>
-          <t>secondary study aim</t>
+          <t>segmented regression model</t>
         </is>
       </c>
       <c r="C415" s="3" t="inlineStr"/>
@@ -19103,7 +19077,7 @@
       <c r="A416" s="3" t="inlineStr"/>
       <c r="B416" s="3" t="inlineStr">
         <is>
-          <t>segmented regression model</t>
+          <t>selection bias</t>
         </is>
       </c>
       <c r="C416" s="3" t="inlineStr"/>
@@ -19144,7 +19118,7 @@
       <c r="A417" s="3" t="inlineStr"/>
       <c r="B417" s="3" t="inlineStr">
         <is>
-          <t>selection bias</t>
+          <t>self-report measure</t>
         </is>
       </c>
       <c r="C417" s="3" t="inlineStr"/>
@@ -19161,10 +19135,8 @@
       <c r="J417" s="3" t="inlineStr"/>
       <c r="K417" s="3" t="inlineStr"/>
       <c r="L417" s="3" t="inlineStr"/>
-      <c r="M417" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="M417" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="N417" s="3" t="inlineStr">
         <is>
@@ -19182,108 +19154,110 @@
       <c r="S417" s="3" t="inlineStr"/>
     </row>
     <row r="418">
-      <c r="A418" s="3" t="inlineStr"/>
-      <c r="B418" s="3" t="inlineStr">
-        <is>
-          <t>self-report measure</t>
-        </is>
-      </c>
-      <c r="C418" s="3" t="inlineStr"/>
-      <c r="D418" s="3" t="inlineStr"/>
-      <c r="E418" s="3" t="inlineStr"/>
-      <c r="F418" s="3" t="inlineStr"/>
-      <c r="G418" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H418" s="3" t="inlineStr"/>
-      <c r="I418" s="3" t="inlineStr"/>
-      <c r="J418" s="3" t="inlineStr"/>
-      <c r="K418" s="3" t="inlineStr"/>
-      <c r="L418" s="3" t="inlineStr"/>
-      <c r="M418" s="3" t="n">
+      <c r="A418" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000155</t>
+        </is>
+      </c>
+      <c r="B418" s="2" t="inlineStr">
+        <is>
+          <t>self-report questionnaire</t>
+        </is>
+      </c>
+      <c r="C418" s="2" t="inlineStr">
+        <is>
+          <t>A questionnaire administration in which the person completing the questionnaire is answering questions about themselves.</t>
+        </is>
+      </c>
+      <c r="D418" s="2" t="inlineStr"/>
+      <c r="E418" s="2" t="inlineStr">
+        <is>
+          <t>questionnaire administration</t>
+        </is>
+      </c>
+      <c r="F418" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G418" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H418" s="2" t="inlineStr"/>
+      <c r="I418" s="2" t="inlineStr"/>
+      <c r="J418" s="2" t="inlineStr"/>
+      <c r="K418" s="2" t="inlineStr"/>
+      <c r="L418" s="2" t="inlineStr"/>
+      <c r="M418" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N418" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O418" s="3" t="inlineStr"/>
-      <c r="P418" s="3" t="inlineStr"/>
-      <c r="Q418" s="3" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R418" s="3" t="inlineStr"/>
-      <c r="S418" s="3" t="inlineStr"/>
+      <c r="N418" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O418" s="2" t="inlineStr"/>
+      <c r="P418" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q418" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R418" s="2" t="inlineStr"/>
+      <c r="S418" s="2" t="inlineStr"/>
     </row>
     <row r="419">
-      <c r="A419" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000155</t>
-        </is>
-      </c>
-      <c r="B419" s="2" t="inlineStr">
-        <is>
-          <t>self-report questionnaire</t>
-        </is>
-      </c>
-      <c r="C419" s="2" t="inlineStr">
-        <is>
-          <t>A questionnaire administration in which the person completing the questionnaire is answering questions about themselves.</t>
-        </is>
-      </c>
-      <c r="D419" s="2" t="inlineStr"/>
-      <c r="E419" s="2" t="inlineStr">
-        <is>
-          <t>questionnaire administration</t>
-        </is>
-      </c>
-      <c r="F419" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="G419" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H419" s="2" t="inlineStr"/>
-      <c r="I419" s="2" t="inlineStr"/>
-      <c r="J419" s="2" t="inlineStr"/>
-      <c r="K419" s="2" t="inlineStr"/>
-      <c r="L419" s="2" t="inlineStr"/>
-      <c r="M419" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N419" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O419" s="2" t="inlineStr"/>
-      <c r="P419" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q419" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R419" s="2" t="inlineStr"/>
-      <c r="S419" s="2" t="inlineStr"/>
+      <c r="A419" s="3" t="inlineStr"/>
+      <c r="B419" s="3" t="inlineStr">
+        <is>
+          <t>self-report substance intake</t>
+        </is>
+      </c>
+      <c r="C419" s="3" t="inlineStr"/>
+      <c r="D419" s="3" t="inlineStr"/>
+      <c r="E419" s="3" t="inlineStr"/>
+      <c r="F419" s="3" t="inlineStr"/>
+      <c r="G419" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H419" s="3" t="inlineStr"/>
+      <c r="I419" s="3" t="inlineStr"/>
+      <c r="J419" s="3" t="inlineStr"/>
+      <c r="K419" s="3" t="inlineStr"/>
+      <c r="L419" s="3" t="inlineStr"/>
+      <c r="M419" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N419" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O419" s="3" t="inlineStr"/>
+      <c r="P419" s="3" t="inlineStr"/>
+      <c r="Q419" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R419" s="3" t="inlineStr"/>
+      <c r="S419" s="3" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" s="3" t="inlineStr"/>
       <c r="B420" s="3" t="inlineStr">
         <is>
-          <t>self-report substance intake</t>
+          <t>self-report survey</t>
         </is>
       </c>
       <c r="C420" s="3" t="inlineStr"/>
@@ -19324,7 +19298,7 @@
       <c r="A421" s="3" t="inlineStr"/>
       <c r="B421" s="3" t="inlineStr">
         <is>
-          <t>self-report survey</t>
+          <t>self-reported NMUA</t>
         </is>
       </c>
       <c r="C421" s="3" t="inlineStr"/>
@@ -19365,7 +19339,7 @@
       <c r="A422" s="3" t="inlineStr"/>
       <c r="B422" s="3" t="inlineStr">
         <is>
-          <t>self-reported NMUA</t>
+          <t>self-reported cessation</t>
         </is>
       </c>
       <c r="C422" s="3" t="inlineStr"/>
@@ -19406,7 +19380,7 @@
       <c r="A423" s="3" t="inlineStr"/>
       <c r="B423" s="3" t="inlineStr">
         <is>
-          <t>self-reported cessation</t>
+          <t>self-reported continuous abstinence</t>
         </is>
       </c>
       <c r="C423" s="3" t="inlineStr"/>
@@ -19447,7 +19421,7 @@
       <c r="A424" s="3" t="inlineStr"/>
       <c r="B424" s="3" t="inlineStr">
         <is>
-          <t>self-reported continuous abstinence</t>
+          <t>self-reported continuous abstinence from smoking</t>
         </is>
       </c>
       <c r="C424" s="3" t="inlineStr"/>
@@ -19488,7 +19462,7 @@
       <c r="A425" s="3" t="inlineStr"/>
       <c r="B425" s="3" t="inlineStr">
         <is>
-          <t>self-reported continuous abstinence from smoking</t>
+          <t>self-reported continuous abstinence up to 6-month follow up</t>
         </is>
       </c>
       <c r="C425" s="3" t="inlineStr"/>
@@ -19529,7 +19503,7 @@
       <c r="A426" s="3" t="inlineStr"/>
       <c r="B426" s="3" t="inlineStr">
         <is>
-          <t>self-reported continuous abstinence up to 6-month follow up</t>
+          <t>self-reported drug use</t>
         </is>
       </c>
       <c r="C426" s="3" t="inlineStr"/>
@@ -19570,7 +19544,7 @@
       <c r="A427" s="3" t="inlineStr"/>
       <c r="B427" s="3" t="inlineStr">
         <is>
-          <t>self-reported drug use</t>
+          <t>self-reported injection drug use</t>
         </is>
       </c>
       <c r="C427" s="3" t="inlineStr"/>
@@ -19611,7 +19585,7 @@
       <c r="A428" s="3" t="inlineStr"/>
       <c r="B428" s="3" t="inlineStr">
         <is>
-          <t>self-reported injection drug use</t>
+          <t>self-reported non-smoker</t>
         </is>
       </c>
       <c r="C428" s="3" t="inlineStr"/>
@@ -19652,7 +19626,7 @@
       <c r="A429" s="3" t="inlineStr"/>
       <c r="B429" s="3" t="inlineStr">
         <is>
-          <t>self-reported non-smoker</t>
+          <t>self-reported smoking abstinence</t>
         </is>
       </c>
       <c r="C429" s="3" t="inlineStr"/>
@@ -19669,10 +19643,8 @@
       <c r="J429" s="3" t="inlineStr"/>
       <c r="K429" s="3" t="inlineStr"/>
       <c r="L429" s="3" t="inlineStr"/>
-      <c r="M429" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="M429" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="N429" s="3" t="inlineStr">
         <is>
@@ -19693,7 +19665,7 @@
       <c r="A430" s="3" t="inlineStr"/>
       <c r="B430" s="3" t="inlineStr">
         <is>
-          <t>self-reported smoking abstinence</t>
+          <t>self-reported stimulant use</t>
         </is>
       </c>
       <c r="C430" s="3" t="inlineStr"/>
@@ -19710,8 +19682,10 @@
       <c r="J430" s="3" t="inlineStr"/>
       <c r="K430" s="3" t="inlineStr"/>
       <c r="L430" s="3" t="inlineStr"/>
-      <c r="M430" s="3" t="n">
-        <v>1</v>
+      <c r="M430" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="N430" s="3" t="inlineStr">
         <is>
@@ -19732,7 +19706,7 @@
       <c r="A431" s="3" t="inlineStr"/>
       <c r="B431" s="3" t="inlineStr">
         <is>
-          <t>self-reported stimulant use</t>
+          <t>self-reported substance use</t>
         </is>
       </c>
       <c r="C431" s="3" t="inlineStr"/>
@@ -19773,7 +19747,7 @@
       <c r="A432" s="3" t="inlineStr"/>
       <c r="B432" s="3" t="inlineStr">
         <is>
-          <t>self-reported substance use</t>
+          <t>self-reported tobacco abstinence</t>
         </is>
       </c>
       <c r="C432" s="3" t="inlineStr"/>
@@ -19790,10 +19764,8 @@
       <c r="J432" s="3" t="inlineStr"/>
       <c r="K432" s="3" t="inlineStr"/>
       <c r="L432" s="3" t="inlineStr"/>
-      <c r="M432" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="M432" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="N432" s="3" t="inlineStr">
         <is>
@@ -19814,7 +19786,7 @@
       <c r="A433" s="3" t="inlineStr"/>
       <c r="B433" s="3" t="inlineStr">
         <is>
-          <t>self-reported tobacco abstinence</t>
+          <t>semi-quantative assessment</t>
         </is>
       </c>
       <c r="C433" s="3" t="inlineStr"/>
@@ -19831,8 +19803,10 @@
       <c r="J433" s="3" t="inlineStr"/>
       <c r="K433" s="3" t="inlineStr"/>
       <c r="L433" s="3" t="inlineStr"/>
-      <c r="M433" s="3" t="n">
-        <v>1</v>
+      <c r="M433" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="N433" s="3" t="inlineStr">
         <is>
@@ -19853,7 +19827,7 @@
       <c r="A434" s="3" t="inlineStr"/>
       <c r="B434" s="3" t="inlineStr">
         <is>
-          <t>semi-quantative assessment</t>
+          <t>sensitivity analysis</t>
         </is>
       </c>
       <c r="C434" s="3" t="inlineStr"/>
@@ -19891,112 +19865,112 @@
       <c r="S434" s="3" t="inlineStr"/>
     </row>
     <row r="435">
-      <c r="A435" s="3" t="inlineStr"/>
-      <c r="B435" s="3" t="inlineStr">
-        <is>
-          <t>sensitivity analysis</t>
-        </is>
-      </c>
-      <c r="C435" s="3" t="inlineStr"/>
-      <c r="D435" s="3" t="inlineStr"/>
-      <c r="E435" s="3" t="inlineStr"/>
-      <c r="F435" s="3" t="inlineStr"/>
-      <c r="G435" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H435" s="3" t="inlineStr"/>
-      <c r="I435" s="3" t="inlineStr"/>
-      <c r="J435" s="3" t="inlineStr"/>
-      <c r="K435" s="3" t="inlineStr"/>
-      <c r="L435" s="3" t="inlineStr"/>
-      <c r="M435" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N435" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O435" s="3" t="inlineStr"/>
-      <c r="P435" s="3" t="inlineStr"/>
-      <c r="Q435" s="3" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R435" s="3" t="inlineStr"/>
-      <c r="S435" s="3" t="inlineStr"/>
+      <c r="A435" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001271</t>
+        </is>
+      </c>
+      <c r="B435" s="2" t="inlineStr">
+        <is>
+          <t>sequential multiple randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="C435" s="2" t="inlineStr">
+        <is>
+          <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
+        </is>
+      </c>
+      <c r="D435" s="2" t="inlineStr"/>
+      <c r="E435" s="2" t="inlineStr">
+        <is>
+          <t>randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="F435" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G435" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H435" s="2" t="inlineStr"/>
+      <c r="I435" s="2" t="inlineStr"/>
+      <c r="J435" s="2" t="inlineStr"/>
+      <c r="K435" s="2" t="inlineStr"/>
+      <c r="L435" s="2" t="inlineStr"/>
+      <c r="M435" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N435" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O435" s="2" t="inlineStr"/>
+      <c r="P435" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q435" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R435" s="2" t="inlineStr"/>
+      <c r="S435" s="2" t="inlineStr"/>
     </row>
     <row r="436">
-      <c r="A436" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001271</t>
-        </is>
-      </c>
-      <c r="B436" s="2" t="inlineStr">
-        <is>
-          <t>sequential multiple randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="C436" s="2" t="inlineStr">
-        <is>
-          <t>A randomised controlled trial design in which participants are randomised to study on more than one occasion during the study.</t>
-        </is>
-      </c>
-      <c r="D436" s="2" t="inlineStr"/>
-      <c r="E436" s="2" t="inlineStr">
-        <is>
-          <t>randomised controlled trial design</t>
-        </is>
-      </c>
-      <c r="F436" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="G436" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H436" s="2" t="inlineStr"/>
-      <c r="I436" s="2" t="inlineStr"/>
-      <c r="J436" s="2" t="inlineStr"/>
-      <c r="K436" s="2" t="inlineStr"/>
-      <c r="L436" s="2" t="inlineStr"/>
-      <c r="M436" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N436" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O436" s="2" t="inlineStr"/>
-      <c r="P436" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q436" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R436" s="2" t="inlineStr"/>
-      <c r="S436" s="2" t="inlineStr"/>
+      <c r="A436" s="3" t="inlineStr"/>
+      <c r="B436" s="3" t="inlineStr">
+        <is>
+          <t>serology test</t>
+        </is>
+      </c>
+      <c r="C436" s="3" t="inlineStr"/>
+      <c r="D436" s="3" t="inlineStr"/>
+      <c r="E436" s="3" t="inlineStr"/>
+      <c r="F436" s="3" t="inlineStr"/>
+      <c r="G436" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H436" s="3" t="inlineStr"/>
+      <c r="I436" s="3" t="inlineStr"/>
+      <c r="J436" s="3" t="inlineStr"/>
+      <c r="K436" s="3" t="inlineStr"/>
+      <c r="L436" s="3" t="inlineStr"/>
+      <c r="M436" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N436" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O436" s="3" t="inlineStr"/>
+      <c r="P436" s="3" t="inlineStr"/>
+      <c r="Q436" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R436" s="3" t="inlineStr"/>
+      <c r="S436" s="3" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" s="3" t="inlineStr"/>
       <c r="B437" s="3" t="inlineStr">
         <is>
-          <t>serology test</t>
+          <t>severity measure</t>
         </is>
       </c>
       <c r="C437" s="3" t="inlineStr"/>
@@ -20037,13 +20011,25 @@
       <c r="A438" s="3" t="inlineStr"/>
       <c r="B438" s="3" t="inlineStr">
         <is>
-          <t>severity measure</t>
-        </is>
-      </c>
-      <c r="C438" s="3" t="inlineStr"/>
-      <c r="D438" s="3" t="inlineStr"/>
+          <t>severity of dependence scale (SDS)</t>
+        </is>
+      </c>
+      <c r="C438" s="3" t="inlineStr">
+        <is>
+          <t>A 5 item scale that provides a measure of the severity of dependence. Designed to assess opioid dependence it has been adapted to assess severity of dependence across multiple drug categories</t>
+        </is>
+      </c>
+      <c r="D438" s="3" t="inlineStr">
+        <is>
+          <t>https://www.who.int/substance_abuse/research_tools/severitydependencescale/en/</t>
+        </is>
+      </c>
       <c r="E438" s="3" t="inlineStr"/>
-      <c r="F438" s="3" t="inlineStr"/>
+      <c r="F438" s="3" t="inlineStr">
+        <is>
+          <t>Independent continuant</t>
+        </is>
+      </c>
       <c r="G438" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -20078,25 +20064,13 @@
       <c r="A439" s="3" t="inlineStr"/>
       <c r="B439" s="3" t="inlineStr">
         <is>
-          <t>severity of dependence scale (SDS)</t>
-        </is>
-      </c>
-      <c r="C439" s="3" t="inlineStr">
-        <is>
-          <t>A 5 item scale that provides a measure of the severity of dependence. Designed to assess opioid dependence it has been adapted to assess severity of dependence across multiple drug categories</t>
-        </is>
-      </c>
-      <c r="D439" s="3" t="inlineStr">
-        <is>
-          <t>https://www.who.int/substance_abuse/research_tools/severitydependencescale/en/</t>
-        </is>
-      </c>
+          <t>sex-specific quantile age-period-cohort regression</t>
+        </is>
+      </c>
+      <c r="C439" s="3" t="inlineStr"/>
+      <c r="D439" s="3" t="inlineStr"/>
       <c r="E439" s="3" t="inlineStr"/>
-      <c r="F439" s="3" t="inlineStr">
-        <is>
-          <t>Independent continuant</t>
-        </is>
-      </c>
+      <c r="F439" s="3" t="inlineStr"/>
       <c r="G439" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -20131,7 +20105,7 @@
       <c r="A440" s="3" t="inlineStr"/>
       <c r="B440" s="3" t="inlineStr">
         <is>
-          <t>sex-specific quantile age-period-cohort regression</t>
+          <t>shared risk factor</t>
         </is>
       </c>
       <c r="C440" s="3" t="inlineStr"/>
@@ -20172,7 +20146,7 @@
       <c r="A441" s="3" t="inlineStr"/>
       <c r="B441" s="3" t="inlineStr">
         <is>
-          <t>shared risk factor</t>
+          <t>shared variance</t>
         </is>
       </c>
       <c r="C441" s="3" t="inlineStr"/>
@@ -20213,7 +20187,7 @@
       <c r="A442" s="3" t="inlineStr"/>
       <c r="B442" s="3" t="inlineStr">
         <is>
-          <t>shared variance</t>
+          <t>sheffield Alcohol Policy Model</t>
         </is>
       </c>
       <c r="C442" s="3" t="inlineStr"/>
@@ -20254,10 +20228,14 @@
       <c r="A443" s="3" t="inlineStr"/>
       <c r="B443" s="3" t="inlineStr">
         <is>
-          <t>sheffield Alcohol Policy Model</t>
-        </is>
-      </c>
-      <c r="C443" s="3" t="inlineStr"/>
+          <t>sickness absence register</t>
+        </is>
+      </c>
+      <c r="C443" s="3" t="inlineStr">
+        <is>
+          <t>A source of data on people about their history of sickness absence from work.</t>
+        </is>
+      </c>
       <c r="D443" s="3" t="inlineStr"/>
       <c r="E443" s="3" t="inlineStr"/>
       <c r="F443" s="3" t="inlineStr"/>
@@ -20295,14 +20273,10 @@
       <c r="A444" s="3" t="inlineStr"/>
       <c r="B444" s="3" t="inlineStr">
         <is>
-          <t>sickness absence register</t>
-        </is>
-      </c>
-      <c r="C444" s="3" t="inlineStr">
-        <is>
-          <t>A source of data on people about their history of sickness absence from work.</t>
-        </is>
-      </c>
+          <t>signal processing technique</t>
+        </is>
+      </c>
+      <c r="C444" s="3" t="inlineStr"/>
       <c r="D444" s="3" t="inlineStr"/>
       <c r="E444" s="3" t="inlineStr"/>
       <c r="F444" s="3" t="inlineStr"/>
@@ -20340,7 +20314,7 @@
       <c r="A445" s="3" t="inlineStr"/>
       <c r="B445" s="3" t="inlineStr">
         <is>
-          <t>signal processing technique</t>
+          <t>significant association</t>
         </is>
       </c>
       <c r="C445" s="3" t="inlineStr"/>
@@ -20381,7 +20355,7 @@
       <c r="A446" s="3" t="inlineStr"/>
       <c r="B446" s="3" t="inlineStr">
         <is>
-          <t>significant association</t>
+          <t>significant difference</t>
         </is>
       </c>
       <c r="C446" s="3" t="inlineStr"/>
@@ -20422,7 +20396,7 @@
       <c r="A447" s="3" t="inlineStr"/>
       <c r="B447" s="3" t="inlineStr">
         <is>
-          <t>significant difference</t>
+          <t>significant increase</t>
         </is>
       </c>
       <c r="C447" s="3" t="inlineStr"/>
@@ -20463,7 +20437,7 @@
       <c r="A448" s="3" t="inlineStr"/>
       <c r="B448" s="3" t="inlineStr">
         <is>
-          <t>significant increase</t>
+          <t>simulated demand procedure</t>
         </is>
       </c>
       <c r="C448" s="3" t="inlineStr"/>
@@ -20501,117 +20475,141 @@
       <c r="S448" s="3" t="inlineStr"/>
     </row>
     <row r="449">
-      <c r="A449" s="3" t="inlineStr"/>
-      <c r="B449" s="3" t="inlineStr">
-        <is>
-          <t>simulated demand procedure</t>
-        </is>
-      </c>
-      <c r="C449" s="3" t="inlineStr"/>
-      <c r="D449" s="3" t="inlineStr"/>
-      <c r="E449" s="3" t="inlineStr"/>
-      <c r="F449" s="3" t="inlineStr"/>
-      <c r="G449" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H449" s="3" t="inlineStr"/>
-      <c r="I449" s="3" t="inlineStr"/>
-      <c r="J449" s="3" t="inlineStr"/>
-      <c r="K449" s="3" t="inlineStr"/>
-      <c r="L449" s="3" t="inlineStr"/>
-      <c r="M449" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N449" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O449" s="3" t="inlineStr"/>
-      <c r="P449" s="3" t="inlineStr"/>
-      <c r="Q449" s="3" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R449" s="3" t="inlineStr"/>
-      <c r="S449" s="3" t="inlineStr"/>
+      <c r="A449" s="4" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000171</t>
+        </is>
+      </c>
+      <c r="B449" s="4" t="inlineStr">
+        <is>
+          <t>simulated population</t>
+        </is>
+      </c>
+      <c r="C449" s="4" t="inlineStr">
+        <is>
+          <t>An information content entity that represents attributes of a population for the purposes of modelling processes or outcomes in that population.</t>
+        </is>
+      </c>
+      <c r="D449" s="4" t="inlineStr"/>
+      <c r="E449" s="4" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="F449" s="4" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G449" s="4" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H449" s="4" t="inlineStr"/>
+      <c r="I449" s="4" t="inlineStr"/>
+      <c r="J449" s="4" t="inlineStr"/>
+      <c r="K449" s="4" t="inlineStr"/>
+      <c r="L449" s="4" t="inlineStr"/>
+      <c r="M449" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N449" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O449" s="4" t="inlineStr"/>
+      <c r="P449" s="4" t="inlineStr"/>
+      <c r="Q449" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R449" s="4" t="inlineStr"/>
+      <c r="S449" s="4" t="inlineStr"/>
     </row>
     <row r="450">
-      <c r="A450" s="4" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000171</t>
-        </is>
-      </c>
-      <c r="B450" s="4" t="inlineStr">
-        <is>
-          <t>simulated population</t>
-        </is>
-      </c>
-      <c r="C450" s="4" t="inlineStr">
-        <is>
-          <t>An information content entity that represents attributes of a population for the purposes of modelling processes or outcomes in that population.</t>
-        </is>
-      </c>
-      <c r="D450" s="4" t="inlineStr"/>
-      <c r="E450" s="4" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="F450" s="4" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="G450" s="4" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H450" s="4" t="inlineStr"/>
-      <c r="I450" s="4" t="inlineStr"/>
-      <c r="J450" s="4" t="inlineStr"/>
-      <c r="K450" s="4" t="inlineStr"/>
-      <c r="L450" s="4" t="inlineStr"/>
-      <c r="M450" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N450" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O450" s="4" t="inlineStr"/>
-      <c r="P450" s="4" t="inlineStr"/>
-      <c r="Q450" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R450" s="4" t="inlineStr"/>
-      <c r="S450" s="4" t="inlineStr"/>
+      <c r="A450" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001279</t>
+        </is>
+      </c>
+      <c r="B450" s="2" t="inlineStr">
+        <is>
+          <t>single-arm interventional study design</t>
+        </is>
+      </c>
+      <c r="C450" s="2" t="inlineStr">
+        <is>
+          <t>An interventional study design in which all the participants receive the same type of intervention.</t>
+        </is>
+      </c>
+      <c r="D450" s="2" t="inlineStr"/>
+      <c r="E450" s="2" t="inlineStr">
+        <is>
+          <t>interventional study design</t>
+        </is>
+      </c>
+      <c r="F450" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G450" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H450" s="2" t="inlineStr"/>
+      <c r="I450" s="2" t="inlineStr"/>
+      <c r="J450" s="2" t="inlineStr">
+        <is>
+          <t>single arm study design</t>
+        </is>
+      </c>
+      <c r="K450" s="2" t="inlineStr"/>
+      <c r="L450" s="2" t="inlineStr"/>
+      <c r="M450" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N450" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O450" s="2" t="inlineStr"/>
+      <c r="P450" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q450" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R450" s="2" t="inlineStr"/>
+      <c r="S450" s="2" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001279</t>
+          <t>ADDICTO:0001299</t>
         </is>
       </c>
       <c r="B451" s="2" t="inlineStr">
         <is>
-          <t>single-arm interventional study design</t>
+          <t>single-blind study design</t>
         </is>
       </c>
       <c r="C451" s="2" t="inlineStr">
         <is>
-          <t>An interventional study design in which all the participants receive the same type of intervention.</t>
+          <t>An interventional study design in which the participants are not informed about which of two or more interventions they are to experience until after an endpoint has been reached.</t>
         </is>
       </c>
       <c r="D451" s="2" t="inlineStr"/>
@@ -20632,16 +20630,16 @@
       </c>
       <c r="H451" s="2" t="inlineStr"/>
       <c r="I451" s="2" t="inlineStr"/>
-      <c r="J451" s="2" t="inlineStr">
-        <is>
-          <t>single arm study design</t>
-        </is>
-      </c>
-      <c r="K451" s="2" t="inlineStr"/>
+      <c r="J451" s="2" t="inlineStr"/>
+      <c r="K451" s="2" t="inlineStr">
+        <is>
+          <t>Participants may be unblinded before the end of the study so it is necessary to state at what endpoint they are unblinded. The blinding process needs to be specified so that its likely success can be evaluated.</t>
+        </is>
+      </c>
       <c r="L451" s="2" t="inlineStr"/>
       <c r="M451" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="N451" s="2" t="inlineStr">
@@ -20664,75 +20662,51 @@
       <c r="S451" s="2" t="inlineStr"/>
     </row>
     <row r="452">
-      <c r="A452" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001299</t>
-        </is>
-      </c>
-      <c r="B452" s="2" t="inlineStr">
-        <is>
-          <t>single-blind study design</t>
-        </is>
-      </c>
-      <c r="C452" s="2" t="inlineStr">
-        <is>
-          <t>An interventional study design in which the participants are not informed about which of two or more interventions they are to experience until after an endpoint has been reached.</t>
-        </is>
-      </c>
-      <c r="D452" s="2" t="inlineStr"/>
-      <c r="E452" s="2" t="inlineStr">
-        <is>
-          <t>interventional study design</t>
-        </is>
-      </c>
-      <c r="F452" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="G452" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H452" s="2" t="inlineStr"/>
-      <c r="I452" s="2" t="inlineStr"/>
-      <c r="J452" s="2" t="inlineStr"/>
-      <c r="K452" s="2" t="inlineStr">
-        <is>
-          <t>Participants may be unblinded before the end of the study so it is necessary to state at what endpoint they are unblinded. The blinding process needs to be specified so that its likely success can be evaluated.</t>
-        </is>
-      </c>
-      <c r="L452" s="2" t="inlineStr"/>
-      <c r="M452" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="N452" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O452" s="2" t="inlineStr"/>
-      <c r="P452" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q452" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R452" s="2" t="inlineStr"/>
-      <c r="S452" s="2" t="inlineStr"/>
+      <c r="A452" s="3" t="inlineStr"/>
+      <c r="B452" s="3" t="inlineStr">
+        <is>
+          <t>single-site study</t>
+        </is>
+      </c>
+      <c r="C452" s="3" t="inlineStr"/>
+      <c r="D452" s="3" t="inlineStr"/>
+      <c r="E452" s="3" t="inlineStr"/>
+      <c r="F452" s="3" t="inlineStr"/>
+      <c r="G452" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H452" s="3" t="inlineStr"/>
+      <c r="I452" s="3" t="inlineStr"/>
+      <c r="J452" s="3" t="inlineStr"/>
+      <c r="K452" s="3" t="inlineStr"/>
+      <c r="L452" s="3" t="inlineStr"/>
+      <c r="M452" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N452" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O452" s="3" t="inlineStr"/>
+      <c r="P452" s="3" t="inlineStr"/>
+      <c r="Q452" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R452" s="3" t="inlineStr"/>
+      <c r="S452" s="3" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" s="3" t="inlineStr"/>
       <c r="B453" s="3" t="inlineStr">
         <is>
-          <t>single-site study</t>
+          <t>slope and step change coefficient</t>
         </is>
       </c>
       <c r="C453" s="3" t="inlineStr"/>
@@ -20773,7 +20747,7 @@
       <c r="A454" s="3" t="inlineStr"/>
       <c r="B454" s="3" t="inlineStr">
         <is>
-          <t>slope and step change coefficient</t>
+          <t>smoking Toolkit Study</t>
         </is>
       </c>
       <c r="C454" s="3" t="inlineStr"/>
@@ -20814,7 +20788,7 @@
       <c r="A455" s="3" t="inlineStr"/>
       <c r="B455" s="3" t="inlineStr">
         <is>
-          <t>smoking Toolkit Study</t>
+          <t>smoking cessation treatment trial</t>
         </is>
       </c>
       <c r="C455" s="3" t="inlineStr"/>
@@ -20855,7 +20829,7 @@
       <c r="A456" s="3" t="inlineStr"/>
       <c r="B456" s="3" t="inlineStr">
         <is>
-          <t>smoking cessation treatment trial</t>
+          <t>smoking cessation trial</t>
         </is>
       </c>
       <c r="C456" s="3" t="inlineStr"/>
@@ -20896,7 +20870,7 @@
       <c r="A457" s="3" t="inlineStr"/>
       <c r="B457" s="3" t="inlineStr">
         <is>
-          <t>smoking cessation trial</t>
+          <t>socio-economic index for area of residence</t>
         </is>
       </c>
       <c r="C457" s="3" t="inlineStr"/>
@@ -20937,7 +20911,7 @@
       <c r="A458" s="3" t="inlineStr"/>
       <c r="B458" s="3" t="inlineStr">
         <is>
-          <t>socio-economic index for area of residence</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="C458" s="3" t="inlineStr"/>
@@ -20951,7 +20925,11 @@
       </c>
       <c r="H458" s="3" t="inlineStr"/>
       <c r="I458" s="3" t="inlineStr"/>
-      <c r="J458" s="3" t="inlineStr"/>
+      <c r="J458" s="3" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
       <c r="K458" s="3" t="inlineStr"/>
       <c r="L458" s="3" t="inlineStr"/>
       <c r="M458" s="3" t="inlineStr">
@@ -20978,7 +20956,7 @@
       <c r="A459" s="3" t="inlineStr"/>
       <c r="B459" s="3" t="inlineStr">
         <is>
-          <t>standard deviation</t>
+          <t>standard drinks per day</t>
         </is>
       </c>
       <c r="C459" s="3" t="inlineStr"/>
@@ -20992,11 +20970,7 @@
       </c>
       <c r="H459" s="3" t="inlineStr"/>
       <c r="I459" s="3" t="inlineStr"/>
-      <c r="J459" s="3" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
+      <c r="J459" s="3" t="inlineStr"/>
       <c r="K459" s="3" t="inlineStr"/>
       <c r="L459" s="3" t="inlineStr"/>
       <c r="M459" s="3" t="inlineStr">
@@ -21023,7 +20997,7 @@
       <c r="A460" s="3" t="inlineStr"/>
       <c r="B460" s="3" t="inlineStr">
         <is>
-          <t>standard drinks per day</t>
+          <t>standardised questionnaire</t>
         </is>
       </c>
       <c r="C460" s="3" t="inlineStr"/>
@@ -21040,10 +21014,8 @@
       <c r="J460" s="3" t="inlineStr"/>
       <c r="K460" s="3" t="inlineStr"/>
       <c r="L460" s="3" t="inlineStr"/>
-      <c r="M460" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="M460" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="N460" s="3" t="inlineStr">
         <is>
@@ -21064,7 +21036,7 @@
       <c r="A461" s="3" t="inlineStr"/>
       <c r="B461" s="3" t="inlineStr">
         <is>
-          <t>standardised questionnaire</t>
+          <t>standardised regression coefficient</t>
         </is>
       </c>
       <c r="C461" s="3" t="inlineStr"/>
@@ -21081,8 +21053,10 @@
       <c r="J461" s="3" t="inlineStr"/>
       <c r="K461" s="3" t="inlineStr"/>
       <c r="L461" s="3" t="inlineStr"/>
-      <c r="M461" s="3" t="n">
-        <v>1</v>
+      <c r="M461" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="N461" s="3" t="inlineStr">
         <is>
@@ -21103,7 +21077,7 @@
       <c r="A462" s="3" t="inlineStr"/>
       <c r="B462" s="3" t="inlineStr">
         <is>
-          <t>standardised regression coefficient</t>
+          <t>standardized data capture</t>
         </is>
       </c>
       <c r="C462" s="3" t="inlineStr"/>
@@ -21141,106 +21115,106 @@
       <c r="S462" s="3" t="inlineStr"/>
     </row>
     <row r="463">
-      <c r="A463" s="3" t="inlineStr"/>
-      <c r="B463" s="3" t="inlineStr">
-        <is>
-          <t>standardized data capture</t>
-        </is>
-      </c>
-      <c r="C463" s="3" t="inlineStr"/>
-      <c r="D463" s="3" t="inlineStr"/>
-      <c r="E463" s="3" t="inlineStr"/>
-      <c r="F463" s="3" t="inlineStr"/>
-      <c r="G463" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H463" s="3" t="inlineStr"/>
-      <c r="I463" s="3" t="inlineStr"/>
-      <c r="J463" s="3" t="inlineStr"/>
-      <c r="K463" s="3" t="inlineStr"/>
-      <c r="L463" s="3" t="inlineStr"/>
-      <c r="M463" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N463" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O463" s="3" t="inlineStr"/>
-      <c r="P463" s="3" t="inlineStr"/>
-      <c r="Q463" s="3" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R463" s="3" t="inlineStr"/>
-      <c r="S463" s="3" t="inlineStr"/>
+      <c r="A463" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000156</t>
+        </is>
+      </c>
+      <c r="B463" s="2" t="inlineStr">
+        <is>
+          <t>start of follow-up period</t>
+        </is>
+      </c>
+      <c r="C463" s="2" t="inlineStr">
+        <is>
+          <t>The process boundary at the beginning of a follow-up period.</t>
+        </is>
+      </c>
+      <c r="D463" s="2" t="inlineStr"/>
+      <c r="E463" s="2" t="inlineStr">
+        <is>
+          <t>temporal start</t>
+        </is>
+      </c>
+      <c r="F463" s="2" t="inlineStr">
+        <is>
+          <t>Process boundary</t>
+        </is>
+      </c>
+      <c r="G463" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H463" s="2" t="inlineStr"/>
+      <c r="I463" s="2" t="inlineStr"/>
+      <c r="J463" s="2" t="inlineStr"/>
+      <c r="K463" s="2" t="inlineStr"/>
+      <c r="L463" s="2" t="inlineStr"/>
+      <c r="M463" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N463" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O463" s="2" t="inlineStr"/>
+      <c r="P463" s="2" t="inlineStr"/>
+      <c r="Q463" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R463" s="2" t="inlineStr"/>
+      <c r="S463" s="2" t="inlineStr"/>
     </row>
     <row r="464">
-      <c r="A464" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000156</t>
-        </is>
-      </c>
-      <c r="B464" s="2" t="inlineStr">
-        <is>
-          <t>start of follow-up period</t>
-        </is>
-      </c>
-      <c r="C464" s="2" t="inlineStr">
-        <is>
-          <t>The process boundary at the beginning of a follow-up period.</t>
-        </is>
-      </c>
-      <c r="D464" s="2" t="inlineStr"/>
-      <c r="E464" s="2" t="inlineStr">
-        <is>
-          <t>temporal start</t>
-        </is>
-      </c>
-      <c r="F464" s="2" t="inlineStr">
-        <is>
-          <t>Process boundary</t>
-        </is>
-      </c>
-      <c r="G464" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H464" s="2" t="inlineStr"/>
-      <c r="I464" s="2" t="inlineStr"/>
-      <c r="J464" s="2" t="inlineStr"/>
-      <c r="K464" s="2" t="inlineStr"/>
-      <c r="L464" s="2" t="inlineStr"/>
-      <c r="M464" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N464" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O464" s="2" t="inlineStr"/>
-      <c r="P464" s="2" t="inlineStr"/>
-      <c r="Q464" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R464" s="2" t="inlineStr"/>
-      <c r="S464" s="2" t="inlineStr"/>
+      <c r="A464" s="3" t="inlineStr"/>
+      <c r="B464" s="3" t="inlineStr">
+        <is>
+          <t>state administrative record</t>
+        </is>
+      </c>
+      <c r="C464" s="3" t="inlineStr"/>
+      <c r="D464" s="3" t="inlineStr"/>
+      <c r="E464" s="3" t="inlineStr"/>
+      <c r="F464" s="3" t="inlineStr"/>
+      <c r="G464" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H464" s="3" t="inlineStr"/>
+      <c r="I464" s="3" t="inlineStr"/>
+      <c r="J464" s="3" t="inlineStr"/>
+      <c r="K464" s="3" t="inlineStr"/>
+      <c r="L464" s="3" t="inlineStr"/>
+      <c r="M464" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N464" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O464" s="3" t="inlineStr"/>
+      <c r="P464" s="3" t="inlineStr"/>
+      <c r="Q464" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R464" s="3" t="inlineStr"/>
+      <c r="S464" s="3" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" s="3" t="inlineStr"/>
       <c r="B465" s="3" t="inlineStr">
         <is>
-          <t>state administrative record</t>
+          <t>state transition model</t>
         </is>
       </c>
       <c r="C465" s="3" t="inlineStr"/>
@@ -21281,7 +21255,7 @@
       <c r="A466" s="3" t="inlineStr"/>
       <c r="B466" s="3" t="inlineStr">
         <is>
-          <t>state transition model</t>
+          <t>state-level time-varying policy covariates</t>
         </is>
       </c>
       <c r="C466" s="3" t="inlineStr"/>
@@ -21322,7 +21296,7 @@
       <c r="A467" s="3" t="inlineStr"/>
       <c r="B467" s="3" t="inlineStr">
         <is>
-          <t>state-level time-varying policy covariates</t>
+          <t>statistical adjustment for covariates</t>
         </is>
       </c>
       <c r="C467" s="3" t="inlineStr"/>
@@ -21363,7 +21337,7 @@
       <c r="A468" s="3" t="inlineStr"/>
       <c r="B468" s="3" t="inlineStr">
         <is>
-          <t>statistical adjustment for covariates</t>
+          <t>statistical adjustment for potential confounding variables</t>
         </is>
       </c>
       <c r="C468" s="3" t="inlineStr"/>
@@ -21401,71 +21375,91 @@
       <c r="S468" s="3" t="inlineStr"/>
     </row>
     <row r="469">
-      <c r="A469" s="3" t="inlineStr"/>
-      <c r="B469" s="3" t="inlineStr">
-        <is>
-          <t>statistical adjustment for potential confounding variables</t>
-        </is>
-      </c>
-      <c r="C469" s="3" t="inlineStr"/>
-      <c r="D469" s="3" t="inlineStr"/>
-      <c r="E469" s="3" t="inlineStr"/>
-      <c r="F469" s="3" t="inlineStr"/>
-      <c r="G469" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H469" s="3" t="inlineStr"/>
-      <c r="I469" s="3" t="inlineStr"/>
-      <c r="J469" s="3" t="inlineStr"/>
-      <c r="K469" s="3" t="inlineStr"/>
-      <c r="L469" s="3" t="inlineStr"/>
-      <c r="M469" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N469" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O469" s="3" t="inlineStr"/>
-      <c r="P469" s="3" t="inlineStr"/>
-      <c r="Q469" s="3" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R469" s="3" t="inlineStr"/>
-      <c r="S469" s="3" t="inlineStr"/>
+      <c r="A469" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001296</t>
+        </is>
+      </c>
+      <c r="B469" s="2" t="inlineStr">
+        <is>
+          <t>statistical analysis</t>
+        </is>
+      </c>
+      <c r="C469" s="2" t="inlineStr">
+        <is>
+          <t>A research activity in which parameters estimates describing features of a data set are output.</t>
+        </is>
+      </c>
+      <c r="D469" s="2" t="inlineStr"/>
+      <c r="E469" s="2" t="inlineStr">
+        <is>
+          <t>research activity</t>
+        </is>
+      </c>
+      <c r="F469" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G469" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H469" s="2" t="inlineStr"/>
+      <c r="I469" s="2" t="inlineStr"/>
+      <c r="J469" s="2" t="inlineStr"/>
+      <c r="K469" s="2" t="inlineStr"/>
+      <c r="L469" s="2" t="inlineStr"/>
+      <c r="M469" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N469" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O469" s="2" t="inlineStr"/>
+      <c r="P469" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q469" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R469" s="2" t="inlineStr"/>
+      <c r="S469" s="2" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001296</t>
+          <t>ADDICTO:0001290</t>
         </is>
       </c>
       <c r="B470" s="2" t="inlineStr">
         <is>
-          <t>statistical analysis</t>
+          <t>statistical interaction</t>
         </is>
       </c>
       <c r="C470" s="2" t="inlineStr">
         <is>
-          <t>A research activity in which parameters estimates describing features of a data set are output.</t>
+          <t xml:space="preserve">A statistical parameter that describes the extent and manner in which two or more variables combine to influence or predict an outcome variable. </t>
         </is>
       </c>
       <c r="D470" s="2" t="inlineStr"/>
       <c r="E470" s="2" t="inlineStr">
         <is>
-          <t>research activity</t>
+          <t>statistical parameter</t>
         </is>
       </c>
       <c r="F470" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="G470" s="2" t="inlineStr">
@@ -21503,193 +21497,173 @@
       <c r="S470" s="2" t="inlineStr"/>
     </row>
     <row r="471">
-      <c r="A471" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001290</t>
-        </is>
-      </c>
-      <c r="B471" s="2" t="inlineStr">
-        <is>
-          <t>statistical interaction</t>
-        </is>
-      </c>
-      <c r="C471" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A statistical parameter that describes the extent and manner in which two or more variables combine to influence or predict an outcome variable. </t>
-        </is>
-      </c>
-      <c r="D471" s="2" t="inlineStr"/>
-      <c r="E471" s="2" t="inlineStr">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>OBCS:0000035</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>statistical model</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>A directive information entity that represents a mathematical relationship which relates changes in a given response to changes in one or more factors. A statistical model is a formalization of relationships between variables in the form of mathematical equations.</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr"/>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>directive information entity</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr"/>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="inlineStr"/>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N471" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O471" t="inlineStr"/>
+      <c r="P471" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q471" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R471" t="inlineStr"/>
+      <c r="S471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001291</t>
+        </is>
+      </c>
+      <c r="B472" s="2" t="inlineStr">
         <is>
           <t>statistical parameter</t>
         </is>
       </c>
-      <c r="F471" s="2" t="inlineStr">
+      <c r="C472" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is output from a statistical analysis describing a feature of a data set.</t>
+        </is>
+      </c>
+      <c r="D472" s="2" t="inlineStr"/>
+      <c r="E472" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="F472" s="2" t="inlineStr">
         <is>
           <t>generically dependent continuant</t>
         </is>
       </c>
-      <c r="G471" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H471" s="2" t="inlineStr"/>
-      <c r="I471" s="2" t="inlineStr"/>
-      <c r="J471" s="2" t="inlineStr"/>
-      <c r="K471" s="2" t="inlineStr"/>
-      <c r="L471" s="2" t="inlineStr"/>
-      <c r="M471" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="N471" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O471" s="2" t="inlineStr"/>
-      <c r="P471" s="2" t="inlineStr">
+      <c r="G472" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H472" s="2" t="inlineStr"/>
+      <c r="I472" s="2" t="inlineStr"/>
+      <c r="J472" s="2" t="inlineStr"/>
+      <c r="K472" s="2" t="inlineStr"/>
+      <c r="L472" s="2" t="inlineStr"/>
+      <c r="M472" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N472" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O472" s="2" t="inlineStr"/>
+      <c r="P472" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="Q471" s="2" t="inlineStr">
+      <c r="Q472" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R471" s="2" t="inlineStr"/>
-      <c r="S471" s="2" t="inlineStr"/>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>OBCS:0000035</t>
-        </is>
-      </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t>statistical model</t>
-        </is>
-      </c>
-      <c r="C472" t="inlineStr">
-        <is>
-          <t>A directive information entity that represents a mathematical relationship which relates changes in a given response to changes in one or more factors. A statistical model is a formalization of relationships between variables in the form of mathematical equations.</t>
-        </is>
-      </c>
-      <c r="D472" t="inlineStr"/>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>directive information entity</t>
-        </is>
-      </c>
-      <c r="F472" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="G472" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H472" t="inlineStr"/>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
-      <c r="M472" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N472" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O472" t="inlineStr"/>
-      <c r="P472" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q472" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R472" t="inlineStr"/>
-      <c r="S472" t="inlineStr"/>
+      <c r="R472" s="2" t="inlineStr"/>
+      <c r="S472" s="2" t="inlineStr"/>
     </row>
     <row r="473">
-      <c r="A473" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001291</t>
-        </is>
-      </c>
-      <c r="B473" s="2" t="inlineStr">
-        <is>
-          <t>statistical parameter</t>
-        </is>
-      </c>
-      <c r="C473" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is output from a statistical analysis describing a feature of a data set.</t>
-        </is>
-      </c>
-      <c r="D473" s="2" t="inlineStr"/>
-      <c r="E473" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="F473" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="G473" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H473" s="2" t="inlineStr"/>
-      <c r="I473" s="2" t="inlineStr"/>
-      <c r="J473" s="2" t="inlineStr"/>
-      <c r="K473" s="2" t="inlineStr"/>
-      <c r="L473" s="2" t="inlineStr"/>
-      <c r="M473" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N473" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O473" s="2" t="inlineStr"/>
-      <c r="P473" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q473" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R473" s="2" t="inlineStr"/>
-      <c r="S473" s="2" t="inlineStr"/>
+      <c r="A473" s="3" t="inlineStr"/>
+      <c r="B473" s="3" t="inlineStr">
+        <is>
+          <t>statistically significant</t>
+        </is>
+      </c>
+      <c r="C473" s="3" t="inlineStr"/>
+      <c r="D473" s="3" t="inlineStr"/>
+      <c r="E473" s="3" t="inlineStr"/>
+      <c r="F473" s="3" t="inlineStr"/>
+      <c r="G473" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H473" s="3" t="inlineStr"/>
+      <c r="I473" s="3" t="inlineStr"/>
+      <c r="J473" s="3" t="inlineStr"/>
+      <c r="K473" s="3" t="inlineStr"/>
+      <c r="L473" s="3" t="inlineStr"/>
+      <c r="M473" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N473" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O473" s="3" t="inlineStr"/>
+      <c r="P473" s="3" t="inlineStr"/>
+      <c r="Q473" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R473" s="3" t="inlineStr"/>
+      <c r="S473" s="3" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" s="3" t="inlineStr"/>
       <c r="B474" s="3" t="inlineStr">
         <is>
-          <t>statistically significant</t>
+          <t>stepped-wedge study design</t>
         </is>
       </c>
       <c r="C474" s="3" t="inlineStr"/>
@@ -21730,7 +21704,7 @@
       <c r="A475" s="3" t="inlineStr"/>
       <c r="B475" s="3" t="inlineStr">
         <is>
-          <t>stepped-wedge study design</t>
+          <t>stratification</t>
         </is>
       </c>
       <c r="C475" s="3" t="inlineStr"/>
@@ -21771,7 +21745,7 @@
       <c r="A476" s="3" t="inlineStr"/>
       <c r="B476" s="3" t="inlineStr">
         <is>
-          <t>stratification</t>
+          <t>stratified sample</t>
         </is>
       </c>
       <c r="C476" s="3" t="inlineStr"/>
@@ -21812,7 +21786,7 @@
       <c r="A477" s="3" t="inlineStr"/>
       <c r="B477" s="3" t="inlineStr">
         <is>
-          <t>stratified sample</t>
+          <t>strength of association</t>
         </is>
       </c>
       <c r="C477" s="3" t="inlineStr"/>
@@ -21853,7 +21827,7 @@
       <c r="A478" s="3" t="inlineStr"/>
       <c r="B478" s="3" t="inlineStr">
         <is>
-          <t>strength of association</t>
+          <t>strong evidence</t>
         </is>
       </c>
       <c r="C478" s="3" t="inlineStr"/>
@@ -21894,7 +21868,7 @@
       <c r="A479" s="3" t="inlineStr"/>
       <c r="B479" s="3" t="inlineStr">
         <is>
-          <t>strong evidence</t>
+          <t>structural equation univariate and multivariate modeling</t>
         </is>
       </c>
       <c r="C479" s="3" t="inlineStr"/>
@@ -21935,7 +21909,7 @@
       <c r="A480" s="3" t="inlineStr"/>
       <c r="B480" s="3" t="inlineStr">
         <is>
-          <t>structural equation univariate and multivariate modeling</t>
+          <t>study</t>
         </is>
       </c>
       <c r="C480" s="3" t="inlineStr"/>
@@ -21973,218 +21947,218 @@
       <c r="S480" s="3" t="inlineStr"/>
     </row>
     <row r="481">
-      <c r="A481" s="3" t="inlineStr"/>
-      <c r="B481" s="3" t="inlineStr">
-        <is>
-          <t>study</t>
-        </is>
-      </c>
-      <c r="C481" s="3" t="inlineStr"/>
-      <c r="D481" s="3" t="inlineStr"/>
-      <c r="E481" s="3" t="inlineStr"/>
-      <c r="F481" s="3" t="inlineStr"/>
-      <c r="G481" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H481" s="3" t="inlineStr"/>
-      <c r="I481" s="3" t="inlineStr"/>
-      <c r="J481" s="3" t="inlineStr"/>
-      <c r="K481" s="3" t="inlineStr"/>
-      <c r="L481" s="3" t="inlineStr"/>
-      <c r="M481" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N481" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O481" s="3" t="inlineStr"/>
-      <c r="P481" s="3" t="inlineStr"/>
-      <c r="Q481" s="3" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R481" s="3" t="inlineStr"/>
-      <c r="S481" s="3" t="inlineStr"/>
+      <c r="A481" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001300</t>
+        </is>
+      </c>
+      <c r="B481" s="2" t="inlineStr">
+        <is>
+          <t>study blinding procedure</t>
+        </is>
+      </c>
+      <c r="C481" s="2" t="inlineStr">
+        <is>
+          <t>A research activity that aims to ensure that study participants in an interventional research study have as little information as possible about which of two or more interventions they are to experience.</t>
+        </is>
+      </c>
+      <c r="D481" s="2" t="inlineStr"/>
+      <c r="E481" s="2" t="inlineStr">
+        <is>
+          <t>research activity</t>
+        </is>
+      </c>
+      <c r="F481" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="G481" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H481" s="2" t="inlineStr"/>
+      <c r="I481" s="2" t="inlineStr"/>
+      <c r="J481" s="2" t="inlineStr"/>
+      <c r="K481" s="2" t="inlineStr"/>
+      <c r="L481" s="2" t="inlineStr"/>
+      <c r="M481" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N481" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O481" s="2" t="inlineStr"/>
+      <c r="P481" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q481" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R481" s="2" t="inlineStr"/>
+      <c r="S481" s="2" t="inlineStr"/>
     </row>
     <row r="482">
-      <c r="A482" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001300</t>
-        </is>
-      </c>
-      <c r="B482" s="2" t="inlineStr">
-        <is>
-          <t>study blinding procedure</t>
-        </is>
-      </c>
-      <c r="C482" s="2" t="inlineStr">
-        <is>
-          <t>A research activity that aims to ensure that study participants in an interventional research study have as little information as possible about which of two or more interventions they are to experience.</t>
-        </is>
-      </c>
-      <c r="D482" s="2" t="inlineStr"/>
-      <c r="E482" s="2" t="inlineStr">
-        <is>
-          <t>research activity</t>
-        </is>
-      </c>
-      <c r="F482" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="G482" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H482" s="2" t="inlineStr"/>
-      <c r="I482" s="2" t="inlineStr"/>
-      <c r="J482" s="2" t="inlineStr"/>
-      <c r="K482" s="2" t="inlineStr"/>
-      <c r="L482" s="2" t="inlineStr"/>
-      <c r="M482" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N482" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O482" s="2" t="inlineStr"/>
-      <c r="P482" s="2" t="inlineStr">
+      <c r="A482" s="3" t="inlineStr"/>
+      <c r="B482" s="3" t="inlineStr">
+        <is>
+          <t>study conclusion</t>
+        </is>
+      </c>
+      <c r="C482" s="3" t="inlineStr"/>
+      <c r="D482" s="3" t="inlineStr"/>
+      <c r="E482" s="3" t="inlineStr"/>
+      <c r="F482" s="3" t="inlineStr"/>
+      <c r="G482" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H482" s="3" t="inlineStr"/>
+      <c r="I482" s="3" t="inlineStr"/>
+      <c r="J482" s="3" t="inlineStr"/>
+      <c r="K482" s="3" t="inlineStr"/>
+      <c r="L482" s="3" t="inlineStr"/>
+      <c r="M482" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N482" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O482" s="3" t="inlineStr"/>
+      <c r="P482" s="3" t="inlineStr"/>
+      <c r="Q482" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R482" s="3" t="inlineStr"/>
+      <c r="S482" s="3" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001287</t>
+        </is>
+      </c>
+      <c r="B483" s="2" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="C483" s="2" t="inlineStr">
+        <is>
+          <t>A plan specification that describes the way a research study should be conducted in terms of what kind of data are collected, how the data are collected and the circumstances in which they are collected.</t>
+        </is>
+      </c>
+      <c r="D483" s="2" t="inlineStr"/>
+      <c r="E483" s="2" t="inlineStr">
+        <is>
+          <t>plan specification</t>
+        </is>
+      </c>
+      <c r="F483" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G483" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H483" s="2" t="inlineStr"/>
+      <c r="I483" s="2" t="inlineStr"/>
+      <c r="J483" s="2" t="inlineStr"/>
+      <c r="K483" s="2" t="inlineStr">
+        <is>
+          <t>The design is the specification that may be realised as a research study.</t>
+        </is>
+      </c>
+      <c r="L483" s="2" t="inlineStr"/>
+      <c r="M483" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N483" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O483" s="2" t="inlineStr"/>
+      <c r="P483" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="Q482" s="2" t="inlineStr">
+      <c r="Q483" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R482" s="2" t="inlineStr"/>
-      <c r="S482" s="2" t="inlineStr"/>
-    </row>
-    <row r="483">
-      <c r="A483" s="3" t="inlineStr"/>
-      <c r="B483" s="3" t="inlineStr">
-        <is>
-          <t>study conclusion</t>
-        </is>
-      </c>
-      <c r="C483" s="3" t="inlineStr"/>
-      <c r="D483" s="3" t="inlineStr"/>
-      <c r="E483" s="3" t="inlineStr"/>
-      <c r="F483" s="3" t="inlineStr"/>
-      <c r="G483" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H483" s="3" t="inlineStr"/>
-      <c r="I483" s="3" t="inlineStr"/>
-      <c r="J483" s="3" t="inlineStr"/>
-      <c r="K483" s="3" t="inlineStr"/>
-      <c r="L483" s="3" t="inlineStr"/>
-      <c r="M483" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N483" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O483" s="3" t="inlineStr"/>
-      <c r="P483" s="3" t="inlineStr"/>
-      <c r="Q483" s="3" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R483" s="3" t="inlineStr"/>
-      <c r="S483" s="3" t="inlineStr"/>
+      <c r="R483" s="2" t="inlineStr"/>
+      <c r="S483" s="2" t="inlineStr"/>
     </row>
     <row r="484">
-      <c r="A484" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001287</t>
-        </is>
-      </c>
-      <c r="B484" s="2" t="inlineStr">
-        <is>
-          <t>study design</t>
-        </is>
-      </c>
-      <c r="C484" s="2" t="inlineStr">
-        <is>
-          <t>A plan specification that describes the way a research study should be conducted in terms of what kind of data are collected, how the data are collected and the circumstances in which they are collected.</t>
-        </is>
-      </c>
-      <c r="D484" s="2" t="inlineStr"/>
-      <c r="E484" s="2" t="inlineStr">
-        <is>
-          <t>plan specification</t>
-        </is>
-      </c>
-      <c r="F484" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="G484" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H484" s="2" t="inlineStr"/>
-      <c r="I484" s="2" t="inlineStr"/>
-      <c r="J484" s="2" t="inlineStr"/>
-      <c r="K484" s="2" t="inlineStr">
-        <is>
-          <t>The design is the specification that may be realised as a research study.</t>
-        </is>
-      </c>
-      <c r="L484" s="2" t="inlineStr"/>
-      <c r="M484" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N484" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O484" s="2" t="inlineStr"/>
-      <c r="P484" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q484" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R484" s="2" t="inlineStr"/>
-      <c r="S484" s="2" t="inlineStr"/>
+      <c r="A484" s="3" t="inlineStr"/>
+      <c r="B484" s="3" t="inlineStr">
+        <is>
+          <t>study group</t>
+        </is>
+      </c>
+      <c r="C484" s="3" t="inlineStr"/>
+      <c r="D484" s="3" t="inlineStr"/>
+      <c r="E484" s="3" t="inlineStr"/>
+      <c r="F484" s="3" t="inlineStr"/>
+      <c r="G484" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H484" s="3" t="inlineStr"/>
+      <c r="I484" s="3" t="inlineStr"/>
+      <c r="J484" s="3" t="inlineStr"/>
+      <c r="K484" s="3" t="inlineStr"/>
+      <c r="L484" s="3" t="inlineStr"/>
+      <c r="M484" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N484" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O484" s="3" t="inlineStr"/>
+      <c r="P484" s="3" t="inlineStr"/>
+      <c r="Q484" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R484" s="3" t="inlineStr"/>
+      <c r="S484" s="3" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" s="3" t="inlineStr"/>
       <c r="B485" s="3" t="inlineStr">
         <is>
-          <t>study group</t>
+          <t>study medication</t>
         </is>
       </c>
       <c r="C485" s="3" t="inlineStr"/>
@@ -22225,7 +22199,7 @@
       <c r="A486" s="3" t="inlineStr"/>
       <c r="B486" s="3" t="inlineStr">
         <is>
-          <t>study medication</t>
+          <t>study participation</t>
         </is>
       </c>
       <c r="C486" s="3" t="inlineStr"/>
@@ -22263,112 +22237,112 @@
       <c r="S486" s="3" t="inlineStr"/>
     </row>
     <row r="487">
-      <c r="A487" s="3" t="inlineStr"/>
-      <c r="B487" s="3" t="inlineStr">
-        <is>
-          <t>study participation</t>
-        </is>
-      </c>
-      <c r="C487" s="3" t="inlineStr"/>
-      <c r="D487" s="3" t="inlineStr"/>
-      <c r="E487" s="3" t="inlineStr"/>
-      <c r="F487" s="3" t="inlineStr"/>
-      <c r="G487" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H487" s="3" t="inlineStr"/>
-      <c r="I487" s="3" t="inlineStr"/>
-      <c r="J487" s="3" t="inlineStr"/>
-      <c r="K487" s="3" t="inlineStr"/>
-      <c r="L487" s="3" t="inlineStr"/>
-      <c r="M487" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N487" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O487" s="3" t="inlineStr"/>
-      <c r="P487" s="3" t="inlineStr"/>
-      <c r="Q487" s="3" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R487" s="3" t="inlineStr"/>
-      <c r="S487" s="3" t="inlineStr"/>
+      <c r="A487" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001259</t>
+        </is>
+      </c>
+      <c r="B487" s="2" t="inlineStr">
+        <is>
+          <t>study participation allocation process</t>
+        </is>
+      </c>
+      <c r="C487" s="2" t="inlineStr">
+        <is>
+          <t>A planned process to choose which of two or more study processes will be applied to a study participant.</t>
+        </is>
+      </c>
+      <c r="D487" s="2" t="inlineStr"/>
+      <c r="E487" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="F487" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G487" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H487" s="2" t="inlineStr"/>
+      <c r="I487" s="2" t="inlineStr"/>
+      <c r="J487" s="2" t="inlineStr"/>
+      <c r="K487" s="2" t="inlineStr"/>
+      <c r="L487" s="2" t="inlineStr"/>
+      <c r="M487" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N487" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O487" s="2" t="inlineStr"/>
+      <c r="P487" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q487" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R487" s="2" t="inlineStr"/>
+      <c r="S487" s="2" t="inlineStr"/>
     </row>
     <row r="488">
-      <c r="A488" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001259</t>
-        </is>
-      </c>
-      <c r="B488" s="2" t="inlineStr">
-        <is>
-          <t>study participation allocation process</t>
-        </is>
-      </c>
-      <c r="C488" s="2" t="inlineStr">
-        <is>
-          <t>A planned process to choose which of two or more study processes will be applied to a study participant.</t>
-        </is>
-      </c>
-      <c r="D488" s="2" t="inlineStr"/>
-      <c r="E488" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="F488" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="G488" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H488" s="2" t="inlineStr"/>
-      <c r="I488" s="2" t="inlineStr"/>
-      <c r="J488" s="2" t="inlineStr"/>
-      <c r="K488" s="2" t="inlineStr"/>
-      <c r="L488" s="2" t="inlineStr"/>
-      <c r="M488" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N488" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O488" s="2" t="inlineStr"/>
-      <c r="P488" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q488" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R488" s="2" t="inlineStr"/>
-      <c r="S488" s="2" t="inlineStr"/>
+      <c r="A488" s="3" t="inlineStr"/>
+      <c r="B488" s="3" t="inlineStr">
+        <is>
+          <t>study period</t>
+        </is>
+      </c>
+      <c r="C488" s="3" t="inlineStr"/>
+      <c r="D488" s="3" t="inlineStr"/>
+      <c r="E488" s="3" t="inlineStr"/>
+      <c r="F488" s="3" t="inlineStr"/>
+      <c r="G488" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H488" s="3" t="inlineStr"/>
+      <c r="I488" s="3" t="inlineStr"/>
+      <c r="J488" s="3" t="inlineStr"/>
+      <c r="K488" s="3" t="inlineStr"/>
+      <c r="L488" s="3" t="inlineStr"/>
+      <c r="M488" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N488" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O488" s="3" t="inlineStr"/>
+      <c r="P488" s="3" t="inlineStr"/>
+      <c r="Q488" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R488" s="3" t="inlineStr"/>
+      <c r="S488" s="3" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" s="3" t="inlineStr"/>
       <c r="B489" s="3" t="inlineStr">
         <is>
-          <t>study period</t>
+          <t>study preregistration</t>
         </is>
       </c>
       <c r="C489" s="3" t="inlineStr"/>
@@ -22406,120 +22380,120 @@
       <c r="S489" s="3" t="inlineStr"/>
     </row>
     <row r="490">
-      <c r="A490" s="3" t="inlineStr"/>
-      <c r="B490" s="3" t="inlineStr">
-        <is>
-          <t>study preregistration</t>
-        </is>
-      </c>
-      <c r="C490" s="3" t="inlineStr"/>
-      <c r="D490" s="3" t="inlineStr"/>
-      <c r="E490" s="3" t="inlineStr"/>
-      <c r="F490" s="3" t="inlineStr"/>
-      <c r="G490" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H490" s="3" t="inlineStr"/>
-      <c r="I490" s="3" t="inlineStr"/>
-      <c r="J490" s="3" t="inlineStr"/>
-      <c r="K490" s="3" t="inlineStr"/>
-      <c r="L490" s="3" t="inlineStr"/>
-      <c r="M490" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N490" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O490" s="3" t="inlineStr"/>
-      <c r="P490" s="3" t="inlineStr"/>
-      <c r="Q490" s="3" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R490" s="3" t="inlineStr"/>
-      <c r="S490" s="3" t="inlineStr"/>
+      <c r="A490" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001260</t>
+        </is>
+      </c>
+      <c r="B490" s="2" t="inlineStr">
+        <is>
+          <t>study randomisation processes</t>
+        </is>
+      </c>
+      <c r="C490" s="2" t="inlineStr">
+        <is>
+          <t>A study participation allocation process in which allocation of study participants to study processes is undertaken using a random process.</t>
+        </is>
+      </c>
+      <c r="D490" s="2" t="inlineStr"/>
+      <c r="E490" s="2" t="inlineStr">
+        <is>
+          <t>study participation allocation process</t>
+        </is>
+      </c>
+      <c r="F490" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G490" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H490" s="2" t="inlineStr"/>
+      <c r="I490" s="2" t="inlineStr"/>
+      <c r="J490" s="2" t="inlineStr">
+        <is>
+          <t>Randomised Controlled Trial</t>
+        </is>
+      </c>
+      <c r="K490" s="2" t="inlineStr">
+        <is>
+          <t>Random processes include pseudo-random processes: for example, random number generation by a computer.</t>
+        </is>
+      </c>
+      <c r="L490" s="2" t="inlineStr"/>
+      <c r="M490" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N490" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O490" s="2" t="inlineStr"/>
+      <c r="P490" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q490" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R490" s="2" t="inlineStr"/>
+      <c r="S490" s="2" t="inlineStr"/>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001260</t>
-        </is>
-      </c>
-      <c r="B491" s="2" t="inlineStr">
-        <is>
-          <t>study randomisation processes</t>
-        </is>
-      </c>
-      <c r="C491" s="2" t="inlineStr">
-        <is>
-          <t>A study participation allocation process in which allocation of study participants to study processes is undertaken using a random process.</t>
-        </is>
-      </c>
-      <c r="D491" s="2" t="inlineStr"/>
-      <c r="E491" s="2" t="inlineStr">
-        <is>
-          <t>study participation allocation process</t>
-        </is>
-      </c>
-      <c r="F491" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="G491" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H491" s="2" t="inlineStr"/>
-      <c r="I491" s="2" t="inlineStr"/>
-      <c r="J491" s="2" t="inlineStr">
-        <is>
-          <t>Randomised Controlled Trial</t>
-        </is>
-      </c>
-      <c r="K491" s="2" t="inlineStr">
-        <is>
-          <t>Random processes include pseudo-random processes: for example, random number generation by a computer.</t>
-        </is>
-      </c>
-      <c r="L491" s="2" t="inlineStr"/>
-      <c r="M491" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N491" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O491" s="2" t="inlineStr"/>
-      <c r="P491" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q491" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R491" s="2" t="inlineStr"/>
-      <c r="S491" s="2" t="inlineStr"/>
+      <c r="A491" s="3" t="inlineStr"/>
+      <c r="B491" s="3" t="inlineStr">
+        <is>
+          <t>study recruitment</t>
+        </is>
+      </c>
+      <c r="C491" s="3" t="inlineStr"/>
+      <c r="D491" s="3" t="inlineStr"/>
+      <c r="E491" s="3" t="inlineStr"/>
+      <c r="F491" s="3" t="inlineStr"/>
+      <c r="G491" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H491" s="3" t="inlineStr"/>
+      <c r="I491" s="3" t="inlineStr"/>
+      <c r="J491" s="3" t="inlineStr"/>
+      <c r="K491" s="3" t="inlineStr"/>
+      <c r="L491" s="3" t="inlineStr"/>
+      <c r="M491" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N491" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O491" s="3" t="inlineStr"/>
+      <c r="P491" s="3" t="inlineStr"/>
+      <c r="Q491" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R491" s="3" t="inlineStr"/>
+      <c r="S491" s="3" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" s="3" t="inlineStr"/>
       <c r="B492" s="3" t="inlineStr">
         <is>
-          <t>study recruitment</t>
+          <t>study retention</t>
         </is>
       </c>
       <c r="C492" s="3" t="inlineStr"/>
@@ -22560,7 +22534,7 @@
       <c r="A493" s="3" t="inlineStr"/>
       <c r="B493" s="3" t="inlineStr">
         <is>
-          <t>study retention</t>
+          <t>subjective measure</t>
         </is>
       </c>
       <c r="C493" s="3" t="inlineStr"/>
@@ -22577,10 +22551,8 @@
       <c r="J493" s="3" t="inlineStr"/>
       <c r="K493" s="3" t="inlineStr"/>
       <c r="L493" s="3" t="inlineStr"/>
-      <c r="M493" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="M493" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="N493" s="3" t="inlineStr">
         <is>
@@ -22601,7 +22573,7 @@
       <c r="A494" s="3" t="inlineStr"/>
       <c r="B494" s="3" t="inlineStr">
         <is>
-          <t>subjective measure</t>
+          <t>subjective rating of side effect</t>
         </is>
       </c>
       <c r="C494" s="3" t="inlineStr"/>
@@ -22640,7 +22612,7 @@
       <c r="A495" s="3" t="inlineStr"/>
       <c r="B495" s="3" t="inlineStr">
         <is>
-          <t>subjective rating of side effect</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="C495" s="3" t="inlineStr"/>
@@ -22657,8 +22629,10 @@
       <c r="J495" s="3" t="inlineStr"/>
       <c r="K495" s="3" t="inlineStr"/>
       <c r="L495" s="3" t="inlineStr"/>
-      <c r="M495" s="3" t="n">
-        <v>1</v>
+      <c r="M495" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="N495" s="3" t="inlineStr">
         <is>
@@ -22679,7 +22653,7 @@
       <c r="A496" s="3" t="inlineStr"/>
       <c r="B496" s="3" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>survey estimate</t>
         </is>
       </c>
       <c r="C496" s="3" t="inlineStr"/>
@@ -22720,7 +22694,7 @@
       <c r="A497" s="3" t="inlineStr"/>
       <c r="B497" s="3" t="inlineStr">
         <is>
-          <t>survey estimate</t>
+          <t>survey of substance use</t>
         </is>
       </c>
       <c r="C497" s="3" t="inlineStr"/>
@@ -22761,7 +22735,7 @@
       <c r="A498" s="3" t="inlineStr"/>
       <c r="B498" s="3" t="inlineStr">
         <is>
-          <t>survey of substance use</t>
+          <t>survival analysis</t>
         </is>
       </c>
       <c r="C498" s="3" t="inlineStr"/>
@@ -22802,7 +22776,7 @@
       <c r="A499" s="3" t="inlineStr"/>
       <c r="B499" s="3" t="inlineStr">
         <is>
-          <t>survival analysis</t>
+          <t>synergistic effect</t>
         </is>
       </c>
       <c r="C499" s="3" t="inlineStr"/>
@@ -22843,7 +22817,7 @@
       <c r="A500" s="3" t="inlineStr"/>
       <c r="B500" s="3" t="inlineStr">
         <is>
-          <t>synergistic effect</t>
+          <t>synoptic review</t>
         </is>
       </c>
       <c r="C500" s="3" t="inlineStr"/>
@@ -22884,7 +22858,7 @@
       <c r="A501" s="3" t="inlineStr"/>
       <c r="B501" s="3" t="inlineStr">
         <is>
-          <t>synoptic review</t>
+          <t>synthetic control group</t>
         </is>
       </c>
       <c r="C501" s="3" t="inlineStr"/>
@@ -22925,7 +22899,7 @@
       <c r="A502" s="3" t="inlineStr"/>
       <c r="B502" s="3" t="inlineStr">
         <is>
-          <t>synthetic control group</t>
+          <t>systematic review</t>
         </is>
       </c>
       <c r="C502" s="3" t="inlineStr"/>
@@ -22966,7 +22940,7 @@
       <c r="A503" s="3" t="inlineStr"/>
       <c r="B503" s="3" t="inlineStr">
         <is>
-          <t>systematic review</t>
+          <t>tIDieR guidelines</t>
         </is>
       </c>
       <c r="C503" s="3" t="inlineStr"/>
@@ -23007,7 +22981,7 @@
       <c r="A504" s="3" t="inlineStr"/>
       <c r="B504" s="3" t="inlineStr">
         <is>
-          <t>tIDieR guidelines</t>
+          <t>taxation data</t>
         </is>
       </c>
       <c r="C504" s="3" t="inlineStr"/>
@@ -23045,114 +23019,114 @@
       <c r="S504" s="3" t="inlineStr"/>
     </row>
     <row r="505">
-      <c r="A505" s="3" t="inlineStr"/>
-      <c r="B505" s="3" t="inlineStr">
-        <is>
-          <t>taxation data</t>
-        </is>
-      </c>
-      <c r="C505" s="3" t="inlineStr"/>
-      <c r="D505" s="3" t="inlineStr"/>
-      <c r="E505" s="3" t="inlineStr"/>
-      <c r="F505" s="3" t="inlineStr"/>
-      <c r="G505" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H505" s="3" t="inlineStr"/>
-      <c r="I505" s="3" t="inlineStr"/>
-      <c r="J505" s="3" t="inlineStr"/>
-      <c r="K505" s="3" t="inlineStr"/>
-      <c r="L505" s="3" t="inlineStr"/>
-      <c r="M505" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N505" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O505" s="3" t="inlineStr"/>
-      <c r="P505" s="3" t="inlineStr"/>
-      <c r="Q505" s="3" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R505" s="3" t="inlineStr"/>
-      <c r="S505" s="3" t="inlineStr"/>
+      <c r="A505" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000157</t>
+        </is>
+      </c>
+      <c r="B505" s="2" t="inlineStr">
+        <is>
+          <t>temporal start</t>
+        </is>
+      </c>
+      <c r="C505" s="2" t="inlineStr">
+        <is>
+          <t>The process boundary when a process or temporal region starts.</t>
+        </is>
+      </c>
+      <c r="D505" s="2" t="inlineStr">
+        <is>
+          <t>AFP:0003328</t>
+        </is>
+      </c>
+      <c r="E505" s="2" t="inlineStr">
+        <is>
+          <t>process boundary</t>
+        </is>
+      </c>
+      <c r="F505" s="2" t="inlineStr">
+        <is>
+          <t>Process boundary</t>
+        </is>
+      </c>
+      <c r="G505" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H505" s="2" t="inlineStr">
+        <is>
+          <t>Definition from AFP modified to include temporal region.</t>
+        </is>
+      </c>
+      <c r="I505" s="2" t="inlineStr"/>
+      <c r="J505" s="2" t="inlineStr"/>
+      <c r="K505" s="2" t="inlineStr"/>
+      <c r="L505" s="2" t="inlineStr"/>
+      <c r="M505" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N505" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O505" s="2" t="inlineStr"/>
+      <c r="P505" s="2" t="inlineStr"/>
+      <c r="Q505" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R505" s="2" t="inlineStr"/>
+      <c r="S505" s="2" t="inlineStr"/>
     </row>
     <row r="506">
-      <c r="A506" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000157</t>
-        </is>
-      </c>
-      <c r="B506" s="2" t="inlineStr">
-        <is>
-          <t>temporal start</t>
-        </is>
-      </c>
-      <c r="C506" s="2" t="inlineStr">
-        <is>
-          <t>The process boundary when a process or temporal region starts.</t>
-        </is>
-      </c>
-      <c r="D506" s="2" t="inlineStr">
-        <is>
-          <t>AFP:0003328</t>
-        </is>
-      </c>
-      <c r="E506" s="2" t="inlineStr">
-        <is>
-          <t>process boundary</t>
-        </is>
-      </c>
-      <c r="F506" s="2" t="inlineStr">
-        <is>
-          <t>Process boundary</t>
-        </is>
-      </c>
-      <c r="G506" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H506" s="2" t="inlineStr">
-        <is>
-          <t>Definition from AFP modified to include temporal region.</t>
-        </is>
-      </c>
-      <c r="I506" s="2" t="inlineStr"/>
-      <c r="J506" s="2" t="inlineStr"/>
-      <c r="K506" s="2" t="inlineStr"/>
-      <c r="L506" s="2" t="inlineStr"/>
-      <c r="M506" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N506" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O506" s="2" t="inlineStr"/>
-      <c r="P506" s="2" t="inlineStr"/>
-      <c r="Q506" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R506" s="2" t="inlineStr"/>
-      <c r="S506" s="2" t="inlineStr"/>
+      <c r="A506" s="3" t="inlineStr"/>
+      <c r="B506" s="3" t="inlineStr">
+        <is>
+          <t>tested association</t>
+        </is>
+      </c>
+      <c r="C506" s="3" t="inlineStr"/>
+      <c r="D506" s="3" t="inlineStr"/>
+      <c r="E506" s="3" t="inlineStr"/>
+      <c r="F506" s="3" t="inlineStr"/>
+      <c r="G506" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H506" s="3" t="inlineStr"/>
+      <c r="I506" s="3" t="inlineStr"/>
+      <c r="J506" s="3" t="inlineStr"/>
+      <c r="K506" s="3" t="inlineStr"/>
+      <c r="L506" s="3" t="inlineStr"/>
+      <c r="M506" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N506" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O506" s="3" t="inlineStr"/>
+      <c r="P506" s="3" t="inlineStr"/>
+      <c r="Q506" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R506" s="3" t="inlineStr"/>
+      <c r="S506" s="3" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" s="3" t="inlineStr"/>
       <c r="B507" s="3" t="inlineStr">
         <is>
-          <t>tested association</t>
+          <t>thematic analysis</t>
         </is>
       </c>
       <c r="C507" s="3" t="inlineStr"/>
@@ -23193,7 +23167,7 @@
       <c r="A508" s="3" t="inlineStr"/>
       <c r="B508" s="3" t="inlineStr">
         <is>
-          <t>thematic analysis</t>
+          <t>theory of the collectivity of drinking cultures</t>
         </is>
       </c>
       <c r="C508" s="3" t="inlineStr"/>
@@ -23231,116 +23205,116 @@
       <c r="S508" s="3" t="inlineStr"/>
     </row>
     <row r="509">
-      <c r="A509" s="3" t="inlineStr"/>
-      <c r="B509" s="3" t="inlineStr">
-        <is>
-          <t>theory of the collectivity of drinking cultures</t>
-        </is>
-      </c>
-      <c r="C509" s="3" t="inlineStr"/>
-      <c r="D509" s="3" t="inlineStr"/>
-      <c r="E509" s="3" t="inlineStr"/>
-      <c r="F509" s="3" t="inlineStr"/>
-      <c r="G509" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H509" s="3" t="inlineStr"/>
-      <c r="I509" s="3" t="inlineStr"/>
-      <c r="J509" s="3" t="inlineStr"/>
-      <c r="K509" s="3" t="inlineStr"/>
-      <c r="L509" s="3" t="inlineStr"/>
-      <c r="M509" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N509" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O509" s="3" t="inlineStr"/>
-      <c r="P509" s="3" t="inlineStr"/>
-      <c r="Q509" s="3" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R509" s="3" t="inlineStr"/>
-      <c r="S509" s="3" t="inlineStr"/>
+      <c r="A509" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001357</t>
+        </is>
+      </c>
+      <c r="B509" s="2" t="inlineStr">
+        <is>
+          <t>time series analysis</t>
+        </is>
+      </c>
+      <c r="C509" s="2" t="inlineStr">
+        <is>
+          <t>A statistical analysis involving multiple data points arising from measures taken at repeated intervals that outputs parameter estimates describing changes over time in the data.</t>
+        </is>
+      </c>
+      <c r="D509" s="2" t="inlineStr"/>
+      <c r="E509" s="2" t="inlineStr">
+        <is>
+          <t>statistical analysis</t>
+        </is>
+      </c>
+      <c r="F509" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G509" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H509" s="2" t="inlineStr"/>
+      <c r="I509" s="2" t="inlineStr"/>
+      <c r="J509" s="2" t="inlineStr"/>
+      <c r="K509" s="2" t="inlineStr">
+        <is>
+          <t>This class includes analyses that describe changes over time in a time series and analyses that estimate associations between changes over time in one or more data sequence and others.</t>
+        </is>
+      </c>
+      <c r="L509" s="2" t="inlineStr"/>
+      <c r="M509" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N509" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O509" s="2" t="inlineStr"/>
+      <c r="P509" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q509" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R509" s="2" t="inlineStr"/>
+      <c r="S509" s="2" t="inlineStr"/>
     </row>
     <row r="510">
-      <c r="A510" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001357</t>
-        </is>
-      </c>
-      <c r="B510" s="2" t="inlineStr">
-        <is>
-          <t>time series analysis</t>
-        </is>
-      </c>
-      <c r="C510" s="2" t="inlineStr">
-        <is>
-          <t>A statistical analysis involving multiple data points arising from measures taken at repeated intervals that outputs parameter estimates describing changes over time in the data.</t>
-        </is>
-      </c>
-      <c r="D510" s="2" t="inlineStr"/>
-      <c r="E510" s="2" t="inlineStr">
-        <is>
-          <t>statistical analysis</t>
-        </is>
-      </c>
-      <c r="F510" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="G510" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H510" s="2" t="inlineStr"/>
-      <c r="I510" s="2" t="inlineStr"/>
-      <c r="J510" s="2" t="inlineStr"/>
-      <c r="K510" s="2" t="inlineStr">
-        <is>
-          <t>This class includes analyses that describe changes over time in a time series and analyses that estimate associations between changes over time in one or more data sequence and others.</t>
-        </is>
-      </c>
-      <c r="L510" s="2" t="inlineStr"/>
-      <c r="M510" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="N510" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O510" s="2" t="inlineStr"/>
-      <c r="P510" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q510" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R510" s="2" t="inlineStr"/>
-      <c r="S510" s="2" t="inlineStr"/>
+      <c r="A510" s="3" t="inlineStr"/>
+      <c r="B510" s="3" t="inlineStr">
+        <is>
+          <t>time-dependent covariate</t>
+        </is>
+      </c>
+      <c r="C510" s="3" t="inlineStr"/>
+      <c r="D510" s="3" t="inlineStr"/>
+      <c r="E510" s="3" t="inlineStr"/>
+      <c r="F510" s="3" t="inlineStr"/>
+      <c r="G510" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H510" s="3" t="inlineStr"/>
+      <c r="I510" s="3" t="inlineStr"/>
+      <c r="J510" s="3" t="inlineStr"/>
+      <c r="K510" s="3" t="inlineStr"/>
+      <c r="L510" s="3" t="inlineStr"/>
+      <c r="M510" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N510" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O510" s="3" t="inlineStr"/>
+      <c r="P510" s="3" t="inlineStr"/>
+      <c r="Q510" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R510" s="3" t="inlineStr"/>
+      <c r="S510" s="3" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" s="3" t="inlineStr"/>
       <c r="B511" s="3" t="inlineStr">
         <is>
-          <t>time-dependent covariate</t>
+          <t>time-dependent urine toxicology</t>
         </is>
       </c>
       <c r="C511" s="3" t="inlineStr"/>
@@ -23381,7 +23355,7 @@
       <c r="A512" s="3" t="inlineStr"/>
       <c r="B512" s="3" t="inlineStr">
         <is>
-          <t>time-dependent urine toxicology</t>
+          <t>time-series analysis</t>
         </is>
       </c>
       <c r="C512" s="3" t="inlineStr"/>
@@ -23422,7 +23396,7 @@
       <c r="A513" s="3" t="inlineStr"/>
       <c r="B513" s="3" t="inlineStr">
         <is>
-          <t>time-series analysis</t>
+          <t>tobacco demand indicator</t>
         </is>
       </c>
       <c r="C513" s="3" t="inlineStr"/>
@@ -23460,110 +23434,110 @@
       <c r="S513" s="3" t="inlineStr"/>
     </row>
     <row r="514">
-      <c r="A514" s="3" t="inlineStr"/>
-      <c r="B514" s="3" t="inlineStr">
-        <is>
-          <t>tobacco demand indicator</t>
-        </is>
-      </c>
-      <c r="C514" s="3" t="inlineStr"/>
-      <c r="D514" s="3" t="inlineStr"/>
-      <c r="E514" s="3" t="inlineStr"/>
-      <c r="F514" s="3" t="inlineStr"/>
-      <c r="G514" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H514" s="3" t="inlineStr"/>
-      <c r="I514" s="3" t="inlineStr"/>
-      <c r="J514" s="3" t="inlineStr"/>
-      <c r="K514" s="3" t="inlineStr"/>
-      <c r="L514" s="3" t="inlineStr"/>
-      <c r="M514" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N514" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O514" s="3" t="inlineStr"/>
-      <c r="P514" s="3" t="inlineStr"/>
-      <c r="Q514" s="3" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R514" s="3" t="inlineStr"/>
-      <c r="S514" s="3" t="inlineStr"/>
+      <c r="A514" s="4" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000180</t>
+        </is>
+      </c>
+      <c r="B514" s="4" t="inlineStr">
+        <is>
+          <t>tobacco industry funding</t>
+        </is>
+      </c>
+      <c r="C514" s="4" t="inlineStr">
+        <is>
+          <t>Funding that originates from one or more tobacco companies.</t>
+        </is>
+      </c>
+      <c r="D514" s="4" t="inlineStr"/>
+      <c r="E514" s="4" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="F514" s="4" t="inlineStr">
+        <is>
+          <t>Generically Dependent Continuant</t>
+        </is>
+      </c>
+      <c r="G514" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H514" s="4" t="inlineStr"/>
+      <c r="I514" s="4" t="inlineStr"/>
+      <c r="J514" s="4" t="inlineStr"/>
+      <c r="K514" s="4" t="inlineStr"/>
+      <c r="L514" s="4" t="inlineStr"/>
+      <c r="M514" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N514" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O514" s="4" t="inlineStr"/>
+      <c r="P514" s="4" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Q514" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R514" s="4" t="inlineStr"/>
+      <c r="S514" s="4" t="inlineStr"/>
     </row>
     <row r="515">
-      <c r="A515" s="4" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000180</t>
-        </is>
-      </c>
-      <c r="B515" s="4" t="inlineStr">
-        <is>
-          <t>tobacco industry funding</t>
-        </is>
-      </c>
-      <c r="C515" s="4" t="inlineStr">
-        <is>
-          <t>Funding that originates from one or more tobacco companies.</t>
-        </is>
-      </c>
-      <c r="D515" s="4" t="inlineStr"/>
-      <c r="E515" s="4" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="F515" s="4" t="inlineStr">
-        <is>
-          <t>Generically Dependent Continuant</t>
-        </is>
-      </c>
-      <c r="G515" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="H515" s="4" t="inlineStr"/>
-      <c r="I515" s="4" t="inlineStr"/>
-      <c r="J515" s="4" t="inlineStr"/>
-      <c r="K515" s="4" t="inlineStr"/>
-      <c r="L515" s="4" t="inlineStr"/>
-      <c r="M515" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N515" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O515" s="4" t="inlineStr"/>
-      <c r="P515" s="4" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="Q515" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R515" s="4" t="inlineStr"/>
-      <c r="S515" s="4" t="inlineStr"/>
+      <c r="A515" s="3" t="inlineStr"/>
+      <c r="B515" s="3" t="inlineStr">
+        <is>
+          <t>tobacco industry funding of research</t>
+        </is>
+      </c>
+      <c r="C515" s="3" t="inlineStr"/>
+      <c r="D515" s="3" t="inlineStr"/>
+      <c r="E515" s="3" t="inlineStr"/>
+      <c r="F515" s="3" t="inlineStr"/>
+      <c r="G515" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H515" s="3" t="inlineStr"/>
+      <c r="I515" s="3" t="inlineStr"/>
+      <c r="J515" s="3" t="inlineStr"/>
+      <c r="K515" s="3" t="inlineStr"/>
+      <c r="L515" s="3" t="inlineStr"/>
+      <c r="M515" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N515" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O515" s="3" t="inlineStr"/>
+      <c r="P515" s="3" t="inlineStr"/>
+      <c r="Q515" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R515" s="3" t="inlineStr"/>
+      <c r="S515" s="3" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" s="3" t="inlineStr"/>
       <c r="B516" s="3" t="inlineStr">
         <is>
-          <t>tobacco industry funding of research</t>
+          <t>toxicological assessment of inhaled vapour</t>
         </is>
       </c>
       <c r="C516" s="3" t="inlineStr"/>
@@ -23580,10 +23554,8 @@
       <c r="J516" s="3" t="inlineStr"/>
       <c r="K516" s="3" t="inlineStr"/>
       <c r="L516" s="3" t="inlineStr"/>
-      <c r="M516" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="M516" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="N516" s="3" t="inlineStr">
         <is>
@@ -23604,7 +23576,7 @@
       <c r="A517" s="3" t="inlineStr"/>
       <c r="B517" s="3" t="inlineStr">
         <is>
-          <t>toxicological assessment of inhaled vapour</t>
+          <t>treatment group</t>
         </is>
       </c>
       <c r="C517" s="3" t="inlineStr"/>
@@ -23621,8 +23593,10 @@
       <c r="J517" s="3" t="inlineStr"/>
       <c r="K517" s="3" t="inlineStr"/>
       <c r="L517" s="3" t="inlineStr"/>
-      <c r="M517" s="3" t="n">
-        <v>1</v>
+      <c r="M517" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="N517" s="3" t="inlineStr">
         <is>
@@ -23643,7 +23617,7 @@
       <c r="A518" s="3" t="inlineStr"/>
       <c r="B518" s="3" t="inlineStr">
         <is>
-          <t>treatment group</t>
+          <t>trend analysis</t>
         </is>
       </c>
       <c r="C518" s="3" t="inlineStr"/>
@@ -23684,7 +23658,7 @@
       <c r="A519" s="3" t="inlineStr"/>
       <c r="B519" s="3" t="inlineStr">
         <is>
-          <t>trend analysis</t>
+          <t>trial conclusion</t>
         </is>
       </c>
       <c r="C519" s="3" t="inlineStr"/>
@@ -23725,7 +23699,7 @@
       <c r="A520" s="3" t="inlineStr"/>
       <c r="B520" s="3" t="inlineStr">
         <is>
-          <t>trial conclusion</t>
+          <t>triangulation research method</t>
         </is>
       </c>
       <c r="C520" s="3" t="inlineStr"/>
@@ -23763,112 +23737,112 @@
       <c r="S520" s="3" t="inlineStr"/>
     </row>
     <row r="521">
-      <c r="A521" s="3" t="inlineStr"/>
-      <c r="B521" s="3" t="inlineStr">
-        <is>
-          <t>triangulation research method</t>
-        </is>
-      </c>
-      <c r="C521" s="3" t="inlineStr"/>
-      <c r="D521" s="3" t="inlineStr"/>
-      <c r="E521" s="3" t="inlineStr"/>
-      <c r="F521" s="3" t="inlineStr"/>
-      <c r="G521" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H521" s="3" t="inlineStr"/>
-      <c r="I521" s="3" t="inlineStr"/>
-      <c r="J521" s="3" t="inlineStr"/>
-      <c r="K521" s="3" t="inlineStr"/>
-      <c r="L521" s="3" t="inlineStr"/>
-      <c r="M521" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N521" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O521" s="3" t="inlineStr"/>
-      <c r="P521" s="3" t="inlineStr"/>
-      <c r="Q521" s="3" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R521" s="3" t="inlineStr"/>
-      <c r="S521" s="3" t="inlineStr"/>
+      <c r="A521" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001295</t>
+        </is>
+      </c>
+      <c r="B521" s="2" t="inlineStr">
+        <is>
+          <t>triple-blind study design</t>
+        </is>
+      </c>
+      <c r="C521" s="2" t="inlineStr">
+        <is>
+          <t>An interventional design in which those carrying out the study, the participants and those specifying the statistical analyses are not informed of what intervention each participant will experience until after the data set is locked in preparation for the statistical analysis to be carried out.</t>
+        </is>
+      </c>
+      <c r="D521" s="2" t="inlineStr"/>
+      <c r="E521" s="2" t="inlineStr">
+        <is>
+          <t>interventional study design</t>
+        </is>
+      </c>
+      <c r="F521" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G521" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H521" s="2" t="inlineStr"/>
+      <c r="I521" s="2" t="inlineStr"/>
+      <c r="J521" s="2" t="inlineStr"/>
+      <c r="K521" s="2" t="inlineStr"/>
+      <c r="L521" s="2" t="inlineStr"/>
+      <c r="M521" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N521" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O521" s="2" t="inlineStr"/>
+      <c r="P521" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q521" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R521" s="2" t="inlineStr"/>
+      <c r="S521" s="2" t="inlineStr"/>
     </row>
     <row r="522">
-      <c r="A522" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001295</t>
-        </is>
-      </c>
-      <c r="B522" s="2" t="inlineStr">
-        <is>
-          <t>triple-blind study design</t>
-        </is>
-      </c>
-      <c r="C522" s="2" t="inlineStr">
-        <is>
-          <t>An interventional design in which those carrying out the study, the participants and those specifying the statistical analyses are not informed of what intervention each participant will experience until after the data set is locked in preparation for the statistical analysis to be carried out.</t>
-        </is>
-      </c>
-      <c r="D522" s="2" t="inlineStr"/>
-      <c r="E522" s="2" t="inlineStr">
-        <is>
-          <t>interventional study design</t>
-        </is>
-      </c>
-      <c r="F522" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="G522" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H522" s="2" t="inlineStr"/>
-      <c r="I522" s="2" t="inlineStr"/>
-      <c r="J522" s="2" t="inlineStr"/>
-      <c r="K522" s="2" t="inlineStr"/>
-      <c r="L522" s="2" t="inlineStr"/>
-      <c r="M522" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N522" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O522" s="2" t="inlineStr"/>
-      <c r="P522" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q522" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R522" s="2" t="inlineStr"/>
-      <c r="S522" s="2" t="inlineStr"/>
+      <c r="A522" s="3" t="inlineStr"/>
+      <c r="B522" s="3" t="inlineStr">
+        <is>
+          <t>tweedie's trim and fill approach</t>
+        </is>
+      </c>
+      <c r="C522" s="3" t="inlineStr"/>
+      <c r="D522" s="3" t="inlineStr"/>
+      <c r="E522" s="3" t="inlineStr"/>
+      <c r="F522" s="3" t="inlineStr"/>
+      <c r="G522" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Research activity </t>
+        </is>
+      </c>
+      <c r="H522" s="3" t="inlineStr"/>
+      <c r="I522" s="3" t="inlineStr"/>
+      <c r="J522" s="3" t="inlineStr"/>
+      <c r="K522" s="3" t="inlineStr"/>
+      <c r="L522" s="3" t="inlineStr"/>
+      <c r="M522" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N522" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O522" s="3" t="inlineStr"/>
+      <c r="P522" s="3" t="inlineStr"/>
+      <c r="Q522" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R522" s="3" t="inlineStr"/>
+      <c r="S522" s="3" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" s="3" t="inlineStr"/>
       <c r="B523" s="3" t="inlineStr">
         <is>
-          <t>tweedie's trim and fill approach</t>
+          <t>twin method</t>
         </is>
       </c>
       <c r="C523" s="3" t="inlineStr"/>
@@ -23877,7 +23851,7 @@
       <c r="F523" s="3" t="inlineStr"/>
       <c r="G523" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Research activity </t>
+          <t>Research activity</t>
         </is>
       </c>
       <c r="H523" s="3" t="inlineStr"/>
@@ -23909,7 +23883,7 @@
       <c r="A524" s="3" t="inlineStr"/>
       <c r="B524" s="3" t="inlineStr">
         <is>
-          <t>twin method</t>
+          <t>twin research</t>
         </is>
       </c>
       <c r="C524" s="3" t="inlineStr"/>
@@ -23950,7 +23924,7 @@
       <c r="A525" s="3" t="inlineStr"/>
       <c r="B525" s="3" t="inlineStr">
         <is>
-          <t>twin research</t>
+          <t>twin-based heritability analysis</t>
         </is>
       </c>
       <c r="C525" s="3" t="inlineStr"/>
@@ -23988,66 +23962,86 @@
       <c r="S525" s="3" t="inlineStr"/>
     </row>
     <row r="526">
-      <c r="A526" s="3" t="inlineStr"/>
-      <c r="B526" s="3" t="inlineStr">
-        <is>
-          <t>twin-based heritability analysis</t>
-        </is>
-      </c>
-      <c r="C526" s="3" t="inlineStr"/>
-      <c r="D526" s="3" t="inlineStr"/>
-      <c r="E526" s="3" t="inlineStr"/>
-      <c r="F526" s="3" t="inlineStr"/>
-      <c r="G526" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H526" s="3" t="inlineStr"/>
-      <c r="I526" s="3" t="inlineStr"/>
-      <c r="J526" s="3" t="inlineStr"/>
-      <c r="K526" s="3" t="inlineStr"/>
-      <c r="L526" s="3" t="inlineStr"/>
-      <c r="M526" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N526" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O526" s="3" t="inlineStr"/>
-      <c r="P526" s="3" t="inlineStr"/>
-      <c r="Q526" s="3" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R526" s="3" t="inlineStr"/>
-      <c r="S526" s="3" t="inlineStr"/>
+      <c r="A526" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001270</t>
+        </is>
+      </c>
+      <c r="B526" s="2" t="inlineStr">
+        <is>
+          <t>two-arm parallel group randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="C526" s="2" t="inlineStr">
+        <is>
+          <t>A randomised controlled trial design with two study arms to which participants can be allocated.</t>
+        </is>
+      </c>
+      <c r="D526" s="2" t="inlineStr"/>
+      <c r="E526" s="2" t="inlineStr">
+        <is>
+          <t>randomised controlled trial design</t>
+        </is>
+      </c>
+      <c r="F526" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G526" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H526" s="2" t="inlineStr"/>
+      <c r="I526" s="2" t="inlineStr"/>
+      <c r="J526" s="2" t="inlineStr"/>
+      <c r="K526" s="2" t="inlineStr"/>
+      <c r="L526" s="2" t="inlineStr"/>
+      <c r="M526" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N526" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O526" s="2" t="inlineStr"/>
+      <c r="P526" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q526" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R526" s="2" t="inlineStr"/>
+      <c r="S526" s="2" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001270</t>
+          <t>ADDICTO:0001294</t>
         </is>
       </c>
       <c r="B527" s="2" t="inlineStr">
         <is>
-          <t>two-arm parallel group randomised controlled trial design</t>
+          <t>unblinded study design</t>
         </is>
       </c>
       <c r="C527" s="2" t="inlineStr">
         <is>
-          <t>A randomised controlled trial design with two study arms to which participants can be allocated.</t>
+          <t>An interventional study design in which study participants are informed which of two or more interventions that they are to experience.</t>
         </is>
       </c>
       <c r="D527" s="2" t="inlineStr"/>
       <c r="E527" s="2" t="inlineStr">
         <is>
-          <t>randomised controlled trial design</t>
+          <t>interventional study design</t>
         </is>
       </c>
       <c r="F527" s="2" t="inlineStr">
@@ -24063,11 +24057,15 @@
       <c r="H527" s="2" t="inlineStr"/>
       <c r="I527" s="2" t="inlineStr"/>
       <c r="J527" s="2" t="inlineStr"/>
-      <c r="K527" s="2" t="inlineStr"/>
+      <c r="K527" s="2" t="inlineStr">
+        <is>
+          <t>Unblinded studies can be single-arm trials as well as multi-arm trials.</t>
+        </is>
+      </c>
       <c r="L527" s="2" t="inlineStr"/>
       <c r="M527" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="N527" s="2" t="inlineStr">
@@ -24090,75 +24088,51 @@
       <c r="S527" s="2" t="inlineStr"/>
     </row>
     <row r="528">
-      <c r="A528" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001294</t>
-        </is>
-      </c>
-      <c r="B528" s="2" t="inlineStr">
-        <is>
-          <t>unblinded study design</t>
-        </is>
-      </c>
-      <c r="C528" s="2" t="inlineStr">
-        <is>
-          <t>An interventional study design in which study participants are informed which of two or more interventions that they are to experience.</t>
-        </is>
-      </c>
-      <c r="D528" s="2" t="inlineStr"/>
-      <c r="E528" s="2" t="inlineStr">
-        <is>
-          <t>interventional study design</t>
-        </is>
-      </c>
-      <c r="F528" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="G528" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H528" s="2" t="inlineStr"/>
-      <c r="I528" s="2" t="inlineStr"/>
-      <c r="J528" s="2" t="inlineStr"/>
-      <c r="K528" s="2" t="inlineStr">
-        <is>
-          <t>Unblinded studies can be single-arm trials as well as multi-arm trials.</t>
-        </is>
-      </c>
-      <c r="L528" s="2" t="inlineStr"/>
-      <c r="M528" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="N528" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O528" s="2" t="inlineStr"/>
-      <c r="P528" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q528" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R528" s="2" t="inlineStr"/>
-      <c r="S528" s="2" t="inlineStr"/>
+      <c r="A528" s="3" t="inlineStr"/>
+      <c r="B528" s="3" t="inlineStr">
+        <is>
+          <t>under-reporting</t>
+        </is>
+      </c>
+      <c r="C528" s="3" t="inlineStr"/>
+      <c r="D528" s="3" t="inlineStr"/>
+      <c r="E528" s="3" t="inlineStr"/>
+      <c r="F528" s="3" t="inlineStr"/>
+      <c r="G528" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H528" s="3" t="inlineStr"/>
+      <c r="I528" s="3" t="inlineStr"/>
+      <c r="J528" s="3" t="inlineStr"/>
+      <c r="K528" s="3" t="inlineStr"/>
+      <c r="L528" s="3" t="inlineStr"/>
+      <c r="M528" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N528" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O528" s="3" t="inlineStr"/>
+      <c r="P528" s="3" t="inlineStr"/>
+      <c r="Q528" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R528" s="3" t="inlineStr"/>
+      <c r="S528" s="3" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" s="3" t="inlineStr"/>
       <c r="B529" s="3" t="inlineStr">
         <is>
-          <t>under-reporting</t>
+          <t>under-sampling</t>
         </is>
       </c>
       <c r="C529" s="3" t="inlineStr"/>
@@ -24199,7 +24173,7 @@
       <c r="A530" s="3" t="inlineStr"/>
       <c r="B530" s="3" t="inlineStr">
         <is>
-          <t>under-sampling</t>
+          <t>unique variance</t>
         </is>
       </c>
       <c r="C530" s="3" t="inlineStr"/>
@@ -24240,7 +24214,7 @@
       <c r="A531" s="3" t="inlineStr"/>
       <c r="B531" s="3" t="inlineStr">
         <is>
-          <t>unique variance</t>
+          <t>unplanned analysis</t>
         </is>
       </c>
       <c r="C531" s="3" t="inlineStr"/>
@@ -24281,7 +24255,7 @@
       <c r="A532" s="3" t="inlineStr"/>
       <c r="B532" s="3" t="inlineStr">
         <is>
-          <t>unplanned analysis</t>
+          <t>unvalidated measure</t>
         </is>
       </c>
       <c r="C532" s="3" t="inlineStr"/>
@@ -24298,10 +24272,8 @@
       <c r="J532" s="3" t="inlineStr"/>
       <c r="K532" s="3" t="inlineStr"/>
       <c r="L532" s="3" t="inlineStr"/>
-      <c r="M532" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="M532" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="N532" s="3" t="inlineStr">
         <is>
@@ -24322,7 +24294,7 @@
       <c r="A533" s="3" t="inlineStr"/>
       <c r="B533" s="3" t="inlineStr">
         <is>
-          <t>unvalidated measure</t>
+          <t>urine drug screen</t>
         </is>
       </c>
       <c r="C533" s="3" t="inlineStr"/>
@@ -24336,11 +24308,17 @@
       </c>
       <c r="H533" s="3" t="inlineStr"/>
       <c r="I533" s="3" t="inlineStr"/>
-      <c r="J533" s="3" t="inlineStr"/>
+      <c r="J533" s="3" t="inlineStr">
+        <is>
+          <t>Urine drug test</t>
+        </is>
+      </c>
       <c r="K533" s="3" t="inlineStr"/>
       <c r="L533" s="3" t="inlineStr"/>
-      <c r="M533" s="3" t="n">
-        <v>1</v>
+      <c r="M533" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="N533" s="3" t="inlineStr">
         <is>
@@ -24361,7 +24339,7 @@
       <c r="A534" s="3" t="inlineStr"/>
       <c r="B534" s="3" t="inlineStr">
         <is>
-          <t>urine drug screen</t>
+          <t>urine sample</t>
         </is>
       </c>
       <c r="C534" s="3" t="inlineStr"/>
@@ -24375,11 +24353,7 @@
       </c>
       <c r="H534" s="3" t="inlineStr"/>
       <c r="I534" s="3" t="inlineStr"/>
-      <c r="J534" s="3" t="inlineStr">
-        <is>
-          <t>Urine drug test</t>
-        </is>
-      </c>
+      <c r="J534" s="3" t="inlineStr"/>
       <c r="K534" s="3" t="inlineStr"/>
       <c r="L534" s="3" t="inlineStr"/>
       <c r="M534" s="3" t="inlineStr">
@@ -24406,7 +24380,7 @@
       <c r="A535" s="3" t="inlineStr"/>
       <c r="B535" s="3" t="inlineStr">
         <is>
-          <t>urine sample</t>
+          <t>urine testing for psychoactive substances</t>
         </is>
       </c>
       <c r="C535" s="3" t="inlineStr"/>
@@ -24447,7 +24421,7 @@
       <c r="A536" s="3" t="inlineStr"/>
       <c r="B536" s="3" t="inlineStr">
         <is>
-          <t>urine testing for psychoactive substances</t>
+          <t>urine toxicology for opioids</t>
         </is>
       </c>
       <c r="C536" s="3" t="inlineStr"/>
@@ -24488,7 +24462,7 @@
       <c r="A537" s="3" t="inlineStr"/>
       <c r="B537" s="3" t="inlineStr">
         <is>
-          <t>urine toxicology for opioids</t>
+          <t>urine toxicology screen</t>
         </is>
       </c>
       <c r="C537" s="3" t="inlineStr"/>
@@ -24526,108 +24500,108 @@
       <c r="S537" s="3" t="inlineStr"/>
     </row>
     <row r="538">
-      <c r="A538" s="3" t="inlineStr"/>
-      <c r="B538" s="3" t="inlineStr">
-        <is>
-          <t>urine toxicology screen</t>
-        </is>
-      </c>
-      <c r="C538" s="3" t="inlineStr"/>
-      <c r="D538" s="3" t="inlineStr"/>
-      <c r="E538" s="3" t="inlineStr"/>
-      <c r="F538" s="3" t="inlineStr"/>
-      <c r="G538" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H538" s="3" t="inlineStr"/>
-      <c r="I538" s="3" t="inlineStr"/>
-      <c r="J538" s="3" t="inlineStr"/>
-      <c r="K538" s="3" t="inlineStr"/>
-      <c r="L538" s="3" t="inlineStr"/>
-      <c r="M538" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N538" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O538" s="3" t="inlineStr"/>
-      <c r="P538" s="3" t="inlineStr"/>
-      <c r="Q538" s="3" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R538" s="3" t="inlineStr"/>
-      <c r="S538" s="3" t="inlineStr"/>
+      <c r="A538" s="4" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000172</t>
+        </is>
+      </c>
+      <c r="B538" s="4" t="inlineStr">
+        <is>
+          <t>validated measure</t>
+        </is>
+      </c>
+      <c r="C538" s="4" t="inlineStr">
+        <is>
+          <t>A research measure that has been subjected to evaluation for one or more forms of validity and which it is claimed has reached or exceeded an appropriate threshold on that criterion.</t>
+        </is>
+      </c>
+      <c r="D538" s="4" t="inlineStr"/>
+      <c r="E538" s="4" t="inlineStr">
+        <is>
+          <t>research measure</t>
+        </is>
+      </c>
+      <c r="F538" s="4" t="inlineStr"/>
+      <c r="G538" s="4" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H538" s="4" t="inlineStr"/>
+      <c r="I538" s="4" t="inlineStr"/>
+      <c r="J538" s="4" t="inlineStr"/>
+      <c r="K538" s="4" t="inlineStr"/>
+      <c r="L538" s="4" t="inlineStr"/>
+      <c r="M538" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N538" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O538" s="4" t="inlineStr"/>
+      <c r="P538" s="4" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Q538" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R538" s="4" t="inlineStr"/>
+      <c r="S538" s="4" t="inlineStr"/>
     </row>
     <row r="539">
-      <c r="A539" s="4" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000172</t>
-        </is>
-      </c>
-      <c r="B539" s="4" t="inlineStr">
-        <is>
-          <t>validated measure</t>
-        </is>
-      </c>
-      <c r="C539" s="4" t="inlineStr">
-        <is>
-          <t>A research measure that has been subjected to evaluation for one or more forms of validity and which it is claimed has reached or exceeded an appropriate threshold on that criterion.</t>
-        </is>
-      </c>
-      <c r="D539" s="4" t="inlineStr"/>
-      <c r="E539" s="4" t="inlineStr">
-        <is>
-          <t>research measure</t>
-        </is>
-      </c>
-      <c r="F539" s="4" t="inlineStr"/>
-      <c r="G539" s="4" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H539" s="4" t="inlineStr"/>
-      <c r="I539" s="4" t="inlineStr"/>
-      <c r="J539" s="4" t="inlineStr"/>
-      <c r="K539" s="4" t="inlineStr"/>
-      <c r="L539" s="4" t="inlineStr"/>
-      <c r="M539" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N539" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O539" s="4" t="inlineStr"/>
-      <c r="P539" s="4" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="Q539" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R539" s="4" t="inlineStr"/>
-      <c r="S539" s="4" t="inlineStr"/>
+      <c r="A539" s="3" t="inlineStr"/>
+      <c r="B539" s="3" t="inlineStr">
+        <is>
+          <t>validity of a measure</t>
+        </is>
+      </c>
+      <c r="C539" s="3" t="inlineStr"/>
+      <c r="D539" s="3" t="inlineStr"/>
+      <c r="E539" s="3" t="inlineStr"/>
+      <c r="F539" s="3" t="inlineStr"/>
+      <c r="G539" s="3" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H539" s="3" t="inlineStr"/>
+      <c r="I539" s="3" t="inlineStr"/>
+      <c r="J539" s="3" t="inlineStr"/>
+      <c r="K539" s="3" t="inlineStr"/>
+      <c r="L539" s="3" t="inlineStr"/>
+      <c r="M539" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N539" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O539" s="3" t="inlineStr"/>
+      <c r="P539" s="3" t="inlineStr"/>
+      <c r="Q539" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="R539" s="3" t="inlineStr"/>
+      <c r="S539" s="3" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" s="3" t="inlineStr"/>
       <c r="B540" s="3" t="inlineStr">
         <is>
-          <t>validity of a measure</t>
+          <t>visual analogue scale</t>
         </is>
       </c>
       <c r="C540" s="3" t="inlineStr"/>
@@ -24665,16 +24639,32 @@
       <c r="S540" s="3" t="inlineStr"/>
     </row>
     <row r="541">
-      <c r="A541" s="3" t="inlineStr"/>
+      <c r="A541" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001297</t>
+        </is>
+      </c>
       <c r="B541" s="3" t="inlineStr">
         <is>
-          <t>visual analogue scale</t>
-        </is>
-      </c>
-      <c r="C541" s="3" t="inlineStr"/>
+          <t>wash-out period</t>
+        </is>
+      </c>
+      <c r="C541" s="3" t="inlineStr">
+        <is>
+          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study.</t>
+        </is>
+      </c>
       <c r="D541" s="3" t="inlineStr"/>
-      <c r="E541" s="3" t="inlineStr"/>
-      <c r="F541" s="3" t="inlineStr"/>
+      <c r="E541" s="3" t="inlineStr">
+        <is>
+          <t>temporal interval</t>
+        </is>
+      </c>
+      <c r="F541" s="3" t="inlineStr">
+        <is>
+          <t>temporal interval</t>
+        </is>
+      </c>
       <c r="G541" s="3" t="inlineStr">
         <is>
           <t>Research activity</t>
@@ -24696,7 +24686,11 @@
         </is>
       </c>
       <c r="O541" s="3" t="inlineStr"/>
-      <c r="P541" s="3" t="inlineStr"/>
+      <c r="P541" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q541" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
@@ -24706,191 +24700,130 @@
       <c r="S541" s="3" t="inlineStr"/>
     </row>
     <row r="542">
-      <c r="A542" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001297</t>
-        </is>
-      </c>
-      <c r="B542" s="3" t="inlineStr">
-        <is>
-          <t>wash-out period</t>
-        </is>
-      </c>
-      <c r="C542" s="3" t="inlineStr">
-        <is>
-          <t>A temporal interval between the end of one intervention and the beginning of another in a cross-over research study.</t>
-        </is>
-      </c>
-      <c r="D542" s="3" t="inlineStr"/>
-      <c r="E542" s="3" t="inlineStr">
-        <is>
-          <t>temporal interval</t>
-        </is>
-      </c>
-      <c r="F542" s="3" t="inlineStr">
-        <is>
-          <t>temporal interval</t>
-        </is>
-      </c>
-      <c r="G542" s="3" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H542" s="3" t="inlineStr"/>
-      <c r="I542" s="3" t="inlineStr"/>
-      <c r="J542" s="3" t="inlineStr"/>
-      <c r="K542" s="3" t="inlineStr"/>
-      <c r="L542" s="3" t="inlineStr"/>
-      <c r="M542" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N542" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O542" s="3" t="inlineStr"/>
-      <c r="P542" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q542" s="3" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="R542" s="3" t="inlineStr"/>
-      <c r="S542" s="3" t="inlineStr"/>
+      <c r="A542" s="4" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000173</t>
+        </is>
+      </c>
+      <c r="B542" s="4" t="inlineStr">
+        <is>
+          <t>work absence register</t>
+        </is>
+      </c>
+      <c r="C542" s="4" t="inlineStr">
+        <is>
+          <t>A database documenting absence from work</t>
+        </is>
+      </c>
+      <c r="D542" s="4" t="inlineStr"/>
+      <c r="E542" s="4" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="F542" s="4" t="inlineStr">
+        <is>
+          <t>Independent continuant</t>
+        </is>
+      </c>
+      <c r="G542" s="4" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H542" s="4" t="inlineStr"/>
+      <c r="I542" s="4" t="inlineStr"/>
+      <c r="J542" s="4" t="inlineStr">
+        <is>
+          <t>Absence register</t>
+        </is>
+      </c>
+      <c r="K542" s="4" t="inlineStr"/>
+      <c r="L542" s="4" t="inlineStr"/>
+      <c r="M542" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N542" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O542" s="4" t="inlineStr"/>
+      <c r="P542" s="4" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Q542" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R542" s="4" t="inlineStr"/>
+      <c r="S542" s="4" t="inlineStr"/>
     </row>
     <row r="543">
-      <c r="A543" s="4" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000173</t>
-        </is>
-      </c>
-      <c r="B543" s="4" t="inlineStr">
-        <is>
-          <t>work absence register</t>
-        </is>
-      </c>
-      <c r="C543" s="4" t="inlineStr">
-        <is>
-          <t>A database documenting absence from work</t>
-        </is>
-      </c>
-      <c r="D543" s="4" t="inlineStr"/>
-      <c r="E543" s="4" t="inlineStr">
+      <c r="A543" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000174</t>
+        </is>
+      </c>
+      <c r="B543" s="2" t="inlineStr">
+        <is>
+          <t>year of publication</t>
+        </is>
+      </c>
+      <c r="C543" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is the year in which a document was published.</t>
+        </is>
+      </c>
+      <c r="D543" s="2" t="inlineStr"/>
+      <c r="E543" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F543" s="4" t="inlineStr">
-        <is>
-          <t>Independent continuant</t>
-        </is>
-      </c>
-      <c r="G543" s="4" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H543" s="4" t="inlineStr"/>
-      <c r="I543" s="4" t="inlineStr"/>
-      <c r="J543" s="4" t="inlineStr">
-        <is>
-          <t>Absence register</t>
-        </is>
-      </c>
-      <c r="K543" s="4" t="inlineStr"/>
-      <c r="L543" s="4" t="inlineStr"/>
-      <c r="M543" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N543" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O543" s="4" t="inlineStr"/>
-      <c r="P543" s="4" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="Q543" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R543" s="4" t="inlineStr"/>
-      <c r="S543" s="4" t="inlineStr"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000174</t>
-        </is>
-      </c>
-      <c r="B544" s="2" t="inlineStr">
-        <is>
-          <t>year of publication</t>
-        </is>
-      </c>
-      <c r="C544" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is the year in which a document was published.</t>
-        </is>
-      </c>
-      <c r="D544" s="2" t="inlineStr"/>
-      <c r="E544" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="F544" s="2" t="inlineStr">
+      <c r="F543" s="2" t="inlineStr">
         <is>
           <t>generically dependent continuant</t>
         </is>
       </c>
-      <c r="G544" s="2" t="inlineStr">
-        <is>
-          <t>Research activity</t>
-        </is>
-      </c>
-      <c r="H544" s="2" t="inlineStr"/>
-      <c r="I544" s="2" t="inlineStr"/>
-      <c r="J544" s="2" t="inlineStr"/>
-      <c r="K544" s="2" t="inlineStr"/>
-      <c r="L544" s="2" t="inlineStr"/>
-      <c r="M544" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N544" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O544" s="2" t="inlineStr"/>
-      <c r="P544" s="2" t="inlineStr">
+      <c r="G543" s="2" t="inlineStr">
+        <is>
+          <t>Research activity</t>
+        </is>
+      </c>
+      <c r="H543" s="2" t="inlineStr"/>
+      <c r="I543" s="2" t="inlineStr"/>
+      <c r="J543" s="2" t="inlineStr"/>
+      <c r="K543" s="2" t="inlineStr"/>
+      <c r="L543" s="2" t="inlineStr"/>
+      <c r="M543" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N543" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O543" s="2" t="inlineStr"/>
+      <c r="P543" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="Q544" s="2" t="inlineStr">
+      <c r="Q543" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R544" s="2" t="inlineStr"/>
-      <c r="S544" s="2" t="inlineStr"/>
+      <c r="R543" s="2" t="inlineStr"/>
+      <c r="S543" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
